--- a/Be GlobalV4 Translation Provider/Sdl.Community.BeGlobalV4.Provider/Resources/MTLanguageCodes.xlsx
+++ b/Be GlobalV4 Translation Provider/Sdl.Community.BeGlobalV4.Provider/Resources/MTLanguageCodes.xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$610</definedName>
     <definedName name="unifiedCodes" localSheetId="0">Sheet1!$A$2:$D$610</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2444" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="1399">
   <si>
     <t>Language</t>
   </si>
@@ -4114,6 +4114,123 @@
   </si>
   <si>
     <t>zul</t>
+  </si>
+  <si>
+    <t>Edo</t>
+  </si>
+  <si>
+    <t>bin-NG</t>
+  </si>
+  <si>
+    <t>ce-RU</t>
+  </si>
+  <si>
+    <t>en-ID</t>
+  </si>
+  <si>
+    <t>fr-029</t>
+  </si>
+  <si>
+    <t>Ibibio</t>
+  </si>
+  <si>
+    <t>ibb-NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javanese </t>
+  </si>
+  <si>
+    <t>Javanese, Indonesia</t>
+  </si>
+  <si>
+    <t>jv-Java-ID</t>
+  </si>
+  <si>
+    <t>Kanuri</t>
+  </si>
+  <si>
+    <t>kr-NG</t>
+  </si>
+  <si>
+    <t>Devanagari, India</t>
+  </si>
+  <si>
+    <t>ks-Deva-IN</t>
+  </si>
+  <si>
+    <t>la-001</t>
+  </si>
+  <si>
+    <t>Manipuri</t>
+  </si>
+  <si>
+    <t>mni-IN</t>
+  </si>
+  <si>
+    <t>Latin, Singapore</t>
+  </si>
+  <si>
+    <t>ms-SG</t>
+  </si>
+  <si>
+    <t>Papiamento</t>
+  </si>
+  <si>
+    <t>pap-029</t>
+  </si>
+  <si>
+    <t>Prussian</t>
+  </si>
+  <si>
+    <t>prg-001</t>
+  </si>
+  <si>
+    <t>sd-Deva-IN</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>sq-XK</t>
+  </si>
+  <si>
+    <t>Cyrillic, Kosovo</t>
+  </si>
+  <si>
+    <t>sr-Cyrl-XK</t>
+  </si>
+  <si>
+    <t>Latin, Kosovo</t>
+  </si>
+  <si>
+    <t>sr-Latn-XK</t>
+  </si>
+  <si>
+    <t>sw-CD</t>
+  </si>
+  <si>
+    <t>Arabic, Morocco</t>
+  </si>
+  <si>
+    <t>tzm-Arab-MA</t>
+  </si>
+  <si>
+    <t>Yiddish</t>
+  </si>
+  <si>
+    <t>yi-001</t>
+  </si>
+  <si>
+    <t>Simplified Han, Hong Kong SAR</t>
+  </si>
+  <si>
+    <t>zh-Hans-HK</t>
+  </si>
+  <si>
+    <t>Simplified Han, Macao SAR</t>
+  </si>
+  <si>
+    <t>zh-Hans-MO</t>
   </si>
 </sst>
 </file>
@@ -4480,18 +4597,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F610"/>
+  <dimension ref="A1:F632"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A611" sqref="A611:XFD611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13048,6 +13165,248 @@
         <v>1359</v>
       </c>
     </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B611" t="s">
+        <v>429</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>214</v>
+      </c>
+      <c r="B612" t="s">
+        <v>147</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>310</v>
+      </c>
+      <c r="B613" t="s">
+        <v>699</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>530</v>
+      </c>
+      <c r="B614" t="s">
+        <v>313</v>
+      </c>
+      <c r="C614" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B615" t="s">
+        <v>429</v>
+      </c>
+      <c r="C615" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B616" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C616" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B617" t="s">
+        <v>429</v>
+      </c>
+      <c r="C617" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>760</v>
+      </c>
+      <c r="B618" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C618" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>133</v>
+      </c>
+      <c r="B619" t="s">
+        <v>45</v>
+      </c>
+      <c r="C619" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B620" t="s">
+        <v>110</v>
+      </c>
+      <c r="C620" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>862</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C621" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B622" t="s">
+        <v>313</v>
+      </c>
+      <c r="C622" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B623" t="s">
+        <v>45</v>
+      </c>
+      <c r="C623" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B624" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C624" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>27</v>
+      </c>
+      <c r="B625" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C625" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B626" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C626" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B627" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C627" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>779</v>
+      </c>
+      <c r="B628" t="s">
+        <v>249</v>
+      </c>
+      <c r="C628" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>205</v>
+      </c>
+      <c r="B629" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C629" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B630" t="s">
+        <v>45</v>
+      </c>
+      <c r="C630" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>241</v>
+      </c>
+      <c r="B631" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C631" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>241</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C632" t="s">
+        <v>1398</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D610"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Be GlobalV4 Translation Provider/Sdl.Community.BeGlobalV4.Provider/Resources/MTLanguageCodes.xlsx
+++ b/Be GlobalV4 Translation Provider/Sdl.Community.BeGlobalV4.Provider/Resources/MTLanguageCodes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TradosStudio_Plugins\BeGlobal\LanguageMappings_Feature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fcaputa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="465" windowWidth="19200" windowHeight="21135"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="1399">
   <si>
     <t>Language</t>
   </si>
@@ -4600,7 +4594,8 @@
   <dimension ref="A1:F632"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="A611" sqref="A611:XFD611"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4608,7 +4603,7 @@
     <col min="1" max="1" width="30.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13175,6 +13170,9 @@
       <c r="C611" t="s">
         <v>1361</v>
       </c>
+      <c r="D611" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
@@ -13186,6 +13184,9 @@
       <c r="C612" t="s">
         <v>1362</v>
       </c>
+      <c r="D612" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
@@ -13197,6 +13198,9 @@
       <c r="C613" t="s">
         <v>1363</v>
       </c>
+      <c r="D613" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
@@ -13208,6 +13212,9 @@
       <c r="C614" t="s">
         <v>1364</v>
       </c>
+      <c r="D614" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
@@ -13219,6 +13226,9 @@
       <c r="C615" t="s">
         <v>1366</v>
       </c>
+      <c r="D615" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
@@ -13230,6 +13240,9 @@
       <c r="C616" t="s">
         <v>1369</v>
       </c>
+      <c r="D616" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
@@ -13241,6 +13254,9 @@
       <c r="C617" t="s">
         <v>1371</v>
       </c>
+      <c r="D617" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
@@ -13252,6 +13268,9 @@
       <c r="C618" t="s">
         <v>1373</v>
       </c>
+      <c r="D618" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
@@ -13263,6 +13282,9 @@
       <c r="C619" t="s">
         <v>1374</v>
       </c>
+      <c r="D619" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
@@ -13274,6 +13296,9 @@
       <c r="C620" t="s">
         <v>1376</v>
       </c>
+      <c r="D620" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
@@ -13285,6 +13310,9 @@
       <c r="C621" t="s">
         <v>1378</v>
       </c>
+      <c r="D621" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
@@ -13296,6 +13324,9 @@
       <c r="C622" t="s">
         <v>1380</v>
       </c>
+      <c r="D622" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
@@ -13307,6 +13338,9 @@
       <c r="C623" t="s">
         <v>1382</v>
       </c>
+      <c r="D623" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
@@ -13318,8 +13352,11 @@
       <c r="C624" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D624" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>27</v>
       </c>
@@ -13329,8 +13366,11 @@
       <c r="C625" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D625" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1103</v>
       </c>
@@ -13340,8 +13380,11 @@
       <c r="C626" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D626" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1103</v>
       </c>
@@ -13351,8 +13394,11 @@
       <c r="C627" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D627" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>779</v>
       </c>
@@ -13362,8 +13408,11 @@
       <c r="C628" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D628" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>205</v>
       </c>
@@ -13373,8 +13422,11 @@
       <c r="C629" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D629" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1393</v>
       </c>
@@ -13384,8 +13436,11 @@
       <c r="C630" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D630" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>241</v>
       </c>
@@ -13395,8 +13450,11 @@
       <c r="C631" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D631" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>241</v>
       </c>
@@ -13405,6 +13463,9 @@
       </c>
       <c r="C632" t="s">
         <v>1398</v>
+      </c>
+      <c r="D632" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Be GlobalV4 Translation Provider/Sdl.Community.BeGlobalV4.Provider/Resources/MTLanguageCodes.xlsx
+++ b/Be GlobalV4 Translation Provider/Sdl.Community.BeGlobalV4.Provider/Resources/MTLanguageCodes.xlsx
@@ -4594,8 +4594,8 @@
   <dimension ref="A1:F632"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A633" sqref="A633:XFD633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Be GlobalV4 Translation Provider/Sdl.Community.BeGlobalV4.Provider/Resources/MTLanguageCodes.xlsx
+++ b/Be GlobalV4 Translation Provider/Sdl.Community.BeGlobalV4.Provider/Resources/MTLanguageCodes.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2466" uniqueCount="1421">
   <si>
     <t>Language</t>
   </si>
@@ -4225,13 +4225,79 @@
   </si>
   <si>
     <t>Simplified</t>
+  </si>
+  <si>
+    <t>srp</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>esx</t>
+  </si>
+  <si>
+    <t>esb</t>
+  </si>
+  <si>
+    <t>esc</t>
+  </si>
+  <si>
+    <t>ese</t>
+  </si>
+  <si>
+    <t>esg</t>
+  </si>
+  <si>
+    <t>esh</t>
+  </si>
+  <si>
+    <t>esi</t>
+  </si>
+  <si>
+    <t>esj</t>
+  </si>
+  <si>
+    <t>esd</t>
+  </si>
+  <si>
+    <t>esn</t>
+  </si>
+  <si>
+    <t>esp</t>
+  </si>
+  <si>
+    <t>esy</t>
+  </si>
+  <si>
+    <t>esr</t>
+  </si>
+  <si>
+    <t>esw</t>
+  </si>
+  <si>
+    <t>eso</t>
+  </si>
+  <si>
+    <t>esq</t>
+  </si>
+  <si>
+    <t>esu</t>
+  </si>
+  <si>
+    <t>esv</t>
+  </si>
+  <si>
+    <t>esz</t>
+  </si>
+  <si>
+    <t>ptp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4245,6 +4311,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4268,7 +4341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -4277,6 +4350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4594,8 +4668,8 @@
   <dimension ref="A1:F632"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A633" sqref="A633:XFD633"/>
+      <pane ySplit="1" topLeftCell="A421" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E439" sqref="E439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6585,7 +6659,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>294</v>
       </c>
@@ -6598,8 +6672,11 @@
       <c r="D145" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>294</v>
       </c>
@@ -6613,7 +6690,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>294</v>
       </c>
@@ -6627,7 +6704,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>294</v>
       </c>
@@ -6641,7 +6718,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>294</v>
       </c>
@@ -6655,7 +6732,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>294</v>
       </c>
@@ -6669,7 +6746,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>294</v>
       </c>
@@ -6683,7 +6760,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>294</v>
       </c>
@@ -6697,7 +6774,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>294</v>
       </c>
@@ -6711,7 +6788,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>294</v>
       </c>
@@ -6725,7 +6802,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>294</v>
       </c>
@@ -6739,7 +6816,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>294</v>
       </c>
@@ -6753,7 +6830,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>294</v>
       </c>
@@ -6767,7 +6844,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>294</v>
       </c>
@@ -6781,7 +6858,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>294</v>
       </c>
@@ -6795,7 +6872,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>294</v>
       </c>
@@ -7481,7 +7558,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>294</v>
       </c>
@@ -7495,7 +7572,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>294</v>
       </c>
@@ -7508,8 +7585,11 @@
       <c r="D210" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>294</v>
       </c>
@@ -7523,7 +7603,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>294</v>
       </c>
@@ -7537,7 +7617,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>294</v>
       </c>
@@ -7551,7 +7631,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>294</v>
       </c>
@@ -7565,7 +7645,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>294</v>
       </c>
@@ -7579,7 +7659,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>294</v>
       </c>
@@ -7593,7 +7673,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>294</v>
       </c>
@@ -7607,7 +7687,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>294</v>
       </c>
@@ -7621,7 +7701,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>484</v>
       </c>
@@ -7635,7 +7715,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>487</v>
       </c>
@@ -7649,7 +7729,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>491</v>
       </c>
@@ -7663,7 +7743,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>491</v>
       </c>
@@ -7677,7 +7757,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>496</v>
       </c>
@@ -7691,7 +7771,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>499</v>
       </c>
@@ -10530,7 +10610,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>954</v>
       </c>
@@ -10544,7 +10624,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>954</v>
       </c>
@@ -10558,7 +10638,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>954</v>
       </c>
@@ -10572,7 +10652,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>954</v>
       </c>
@@ -10586,7 +10666,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>954</v>
       </c>
@@ -10600,7 +10680,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>954</v>
       </c>
@@ -10614,7 +10694,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>954</v>
       </c>
@@ -10627,8 +10707,11 @@
       <c r="D439" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E439" s="3" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>954</v>
       </c>
@@ -10642,7 +10725,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>954</v>
       </c>
@@ -10656,7 +10739,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>973</v>
       </c>
@@ -10667,7 +10750,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>973</v>
       </c>
@@ -10678,7 +10761,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>973</v>
       </c>
@@ -10689,7 +10772,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>980</v>
       </c>
@@ -10703,7 +10786,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>980</v>
       </c>
@@ -10717,7 +10800,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>980</v>
       </c>
@@ -10731,7 +10814,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>986</v>
       </c>
@@ -11169,7 +11252,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1055</v>
       </c>
@@ -11180,7 +11263,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1067</v>
       </c>
@@ -11194,7 +11277,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1067</v>
       </c>
@@ -11208,7 +11291,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1067</v>
       </c>
@@ -11222,7 +11305,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1067</v>
       </c>
@@ -11236,7 +11319,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1067</v>
       </c>
@@ -11249,8 +11332,11 @@
       <c r="D486" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E486" s="3" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1067</v>
       </c>
@@ -11263,8 +11349,11 @@
       <c r="D487" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E487" s="3" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1067</v>
       </c>
@@ -11277,8 +11366,11 @@
       <c r="D488" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E488" s="3" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1067</v>
       </c>
@@ -11291,8 +11383,11 @@
       <c r="D489" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E489" s="3" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1067</v>
       </c>
@@ -11306,7 +11401,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1067</v>
       </c>
@@ -11319,8 +11414,11 @@
       <c r="D491" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E491" s="3" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1070</v>
       </c>
@@ -11331,7 +11429,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1072</v>
       </c>
@@ -11342,7 +11440,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1072</v>
       </c>
@@ -11353,7 +11451,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1075</v>
       </c>
@@ -11364,7 +11462,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1077</v>
       </c>
@@ -11618,6 +11716,9 @@
       <c r="D513" t="s">
         <v>1113</v>
       </c>
+      <c r="E513" s="3" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
@@ -11660,6 +11761,9 @@
       <c r="D516" t="s">
         <v>1113</v>
       </c>
+      <c r="E516" s="4" t="s">
+        <v>1407</v>
+      </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
@@ -11674,6 +11778,9 @@
       <c r="D517" t="s">
         <v>1113</v>
       </c>
+      <c r="E517" s="3" t="s">
+        <v>1403</v>
+      </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
@@ -11688,6 +11795,9 @@
       <c r="D518" t="s">
         <v>1113</v>
       </c>
+      <c r="E518" s="3" t="s">
+        <v>1408</v>
+      </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
@@ -11716,6 +11826,9 @@
       <c r="D520" t="s">
         <v>1113</v>
       </c>
+      <c r="E520" s="3" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
@@ -11730,6 +11843,9 @@
       <c r="D521" t="s">
         <v>1113</v>
       </c>
+      <c r="E521" s="3" t="s">
+        <v>1404</v>
+      </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
@@ -11789,6 +11905,9 @@
       <c r="D525" t="s">
         <v>1113</v>
       </c>
+      <c r="E525" s="3" t="s">
+        <v>1405</v>
+      </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
@@ -11803,6 +11922,9 @@
       <c r="D526" t="s">
         <v>1113</v>
       </c>
+      <c r="E526" s="3" t="s">
+        <v>1406</v>
+      </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
@@ -11834,8 +11956,11 @@
       <c r="D528" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E528" s="3" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1110</v>
       </c>
@@ -11848,8 +11973,11 @@
       <c r="D529" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E529" s="3" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1110</v>
       </c>
@@ -11862,8 +11990,11 @@
       <c r="D530" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E530" s="3" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1110</v>
       </c>
@@ -11877,7 +12008,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1110</v>
       </c>
@@ -11890,8 +12021,11 @@
       <c r="D532" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E532" s="3" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1110</v>
       </c>
@@ -11904,8 +12038,11 @@
       <c r="D533" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E533" s="3" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1110</v>
       </c>
@@ -11918,8 +12055,11 @@
       <c r="D534" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E534" s="3" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1110</v>
       </c>
@@ -11932,8 +12072,11 @@
       <c r="D535" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E535" s="3" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1110</v>
       </c>
@@ -11946,8 +12089,11 @@
       <c r="D536" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E536" s="3" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1110</v>
       </c>
@@ -11960,8 +12106,11 @@
       <c r="D537" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E537" s="3" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1110</v>
       </c>
@@ -11974,8 +12123,11 @@
       <c r="D538" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E538" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1110</v>
       </c>
@@ -11988,8 +12140,11 @@
       <c r="D539" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E539" s="3" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1110</v>
       </c>
@@ -12002,8 +12157,11 @@
       <c r="D540" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E540" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1162</v>
       </c>
@@ -12014,7 +12172,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1162</v>
       </c>
@@ -12025,7 +12183,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1166</v>
       </c>
@@ -12039,7 +12197,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1390</v>
       </c>
@@ -12895,7 +13053,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1312</v>
       </c>
@@ -12906,7 +13064,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1371</v>
       </c>
@@ -12920,7 +13078,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1316</v>
       </c>
@@ -12931,7 +13089,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>205</v>
       </c>
@@ -12942,7 +13100,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>294</v>
       </c>
@@ -12952,8 +13110,14 @@
       <c r="C613" t="s">
         <v>1319</v>
       </c>
-    </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D613" t="s">
+        <v>296</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>514</v>
       </c>
@@ -12964,7 +13128,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1321</v>
       </c>
@@ -12975,7 +13139,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>714</v>
       </c>
@@ -12986,7 +13150,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1325</v>
       </c>
@@ -12997,7 +13161,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>739</v>
       </c>
@@ -13008,7 +13172,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>129</v>
       </c>
@@ -13019,7 +13183,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1330</v>
       </c>
@@ -13030,7 +13194,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>840</v>
       </c>
@@ -13041,7 +13205,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1334</v>
       </c>
@@ -13052,7 +13216,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1336</v>
       </c>
@@ -13063,7 +13227,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1081</v>
       </c>
@@ -13074,7 +13238,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>26</v>
       </c>
@@ -13085,7 +13249,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1067</v>
       </c>
@@ -13099,7 +13263,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1067</v>
       </c>
@@ -13112,8 +13276,11 @@
       <c r="D627" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E627" s="3" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>758</v>
       </c>
@@ -13124,7 +13291,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>196</v>
       </c>
@@ -13135,7 +13302,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1348</v>
       </c>
@@ -13146,7 +13313,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>227</v>
       </c>
@@ -13159,8 +13326,11 @@
       <c r="D631" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E631" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>227</v>
       </c>

--- a/Be GlobalV4 Translation Provider/Sdl.Community.BeGlobalV4.Provider/Resources/MTLanguageCodes.xlsx
+++ b/Be GlobalV4 Translation Provider/Sdl.Community.BeGlobalV4.Provider/Resources/MTLanguageCodes.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2469" uniqueCount="1397">
   <si>
     <t>Language</t>
   </si>
@@ -1111,9 +1111,6 @@
   </si>
   <si>
     <t>en-GB</t>
-  </si>
-  <si>
-    <t>ene</t>
   </si>
   <si>
     <t>Grenada</t>
@@ -4598,8 +4595,8 @@
   <dimension ref="A1:F632"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A481" sqref="A481"/>
+      <pane ySplit="1" topLeftCell="A588" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B603" sqref="B603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6589,7 +6586,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>304</v>
       </c>
@@ -6599,42 +6596,39 @@
       <c r="C145" t="s">
         <v>360</v>
       </c>
-      <c r="D145" t="s">
-        <v>361</v>
-      </c>
-      <c r="E145" s="3" t="s">
+      <c r="D145" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>304</v>
       </c>
       <c r="B146" t="s">
+        <v>361</v>
+      </c>
+      <c r="C146" t="s">
         <v>362</v>
-      </c>
-      <c r="C146" t="s">
-        <v>363</v>
       </c>
       <c r="D146" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>304</v>
       </c>
       <c r="B147" t="s">
+        <v>363</v>
+      </c>
+      <c r="C147" t="s">
         <v>364</v>
-      </c>
-      <c r="C147" t="s">
-        <v>365</v>
       </c>
       <c r="D147" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>304</v>
       </c>
@@ -6642,97 +6636,97 @@
         <v>23</v>
       </c>
       <c r="C148" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D148" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>304</v>
       </c>
       <c r="B149" t="s">
+        <v>366</v>
+      </c>
+      <c r="C149" t="s">
         <v>367</v>
-      </c>
-      <c r="C149" t="s">
-        <v>368</v>
       </c>
       <c r="D149" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>304</v>
       </c>
       <c r="B150" t="s">
+        <v>368</v>
+      </c>
+      <c r="C150" t="s">
         <v>369</v>
-      </c>
-      <c r="C150" t="s">
-        <v>370</v>
       </c>
       <c r="D150" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>304</v>
       </c>
       <c r="B151" t="s">
+        <v>370</v>
+      </c>
+      <c r="C151" t="s">
         <v>371</v>
-      </c>
-      <c r="C151" t="s">
-        <v>372</v>
       </c>
       <c r="D151" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>304</v>
       </c>
       <c r="B152" t="s">
+        <v>372</v>
+      </c>
+      <c r="C152" t="s">
         <v>373</v>
-      </c>
-      <c r="C152" t="s">
-        <v>374</v>
       </c>
       <c r="D152" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>304</v>
       </c>
       <c r="B153" t="s">
+        <v>374</v>
+      </c>
+      <c r="C153" t="s">
         <v>375</v>
-      </c>
-      <c r="C153" t="s">
-        <v>376</v>
       </c>
       <c r="D153" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>304</v>
       </c>
       <c r="B154" t="s">
+        <v>376</v>
+      </c>
+      <c r="C154" t="s">
         <v>377</v>
-      </c>
-      <c r="C154" t="s">
-        <v>378</v>
       </c>
       <c r="D154" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>304</v>
       </c>
@@ -6740,27 +6734,27 @@
         <v>60</v>
       </c>
       <c r="C155" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D155" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>304</v>
       </c>
       <c r="B156" t="s">
+        <v>379</v>
+      </c>
+      <c r="C156" t="s">
         <v>380</v>
-      </c>
-      <c r="C156" t="s">
-        <v>381</v>
       </c>
       <c r="D156" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>304</v>
       </c>
@@ -6768,49 +6762,49 @@
         <v>109</v>
       </c>
       <c r="C157" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D157" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>304</v>
       </c>
       <c r="B158" t="s">
+        <v>382</v>
+      </c>
+      <c r="C158" t="s">
         <v>383</v>
-      </c>
-      <c r="C158" t="s">
-        <v>384</v>
       </c>
       <c r="D158" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>304</v>
       </c>
       <c r="B159" t="s">
+        <v>384</v>
+      </c>
+      <c r="C159" t="s">
         <v>385</v>
-      </c>
-      <c r="C159" t="s">
-        <v>386</v>
       </c>
       <c r="D159" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>304</v>
       </c>
       <c r="B160" t="s">
+        <v>386</v>
+      </c>
+      <c r="C160" t="s">
         <v>387</v>
-      </c>
-      <c r="C160" t="s">
-        <v>388</v>
       </c>
       <c r="D160" t="s">
         <v>306</v>
@@ -6824,7 +6818,7 @@
         <v>302</v>
       </c>
       <c r="C161" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D161" t="s">
         <v>306</v>
@@ -6835,10 +6829,10 @@
         <v>304</v>
       </c>
       <c r="B162" t="s">
+        <v>389</v>
+      </c>
+      <c r="C162" t="s">
         <v>390</v>
-      </c>
-      <c r="C162" t="s">
-        <v>391</v>
       </c>
       <c r="D162" t="s">
         <v>306</v>
@@ -6849,10 +6843,10 @@
         <v>304</v>
       </c>
       <c r="B163" t="s">
+        <v>391</v>
+      </c>
+      <c r="C163" t="s">
         <v>392</v>
-      </c>
-      <c r="C163" t="s">
-        <v>393</v>
       </c>
       <c r="D163" t="s">
         <v>306</v>
@@ -6863,10 +6857,10 @@
         <v>304</v>
       </c>
       <c r="B164" t="s">
+        <v>393</v>
+      </c>
+      <c r="C164" t="s">
         <v>394</v>
-      </c>
-      <c r="C164" t="s">
-        <v>395</v>
       </c>
       <c r="D164" t="s">
         <v>306</v>
@@ -6877,10 +6871,10 @@
         <v>304</v>
       </c>
       <c r="B165" t="s">
+        <v>395</v>
+      </c>
+      <c r="C165" t="s">
         <v>396</v>
-      </c>
-      <c r="C165" t="s">
-        <v>397</v>
       </c>
       <c r="D165" t="s">
         <v>306</v>
@@ -6891,10 +6885,10 @@
         <v>304</v>
       </c>
       <c r="B166" t="s">
+        <v>397</v>
+      </c>
+      <c r="C166" t="s">
         <v>398</v>
-      </c>
-      <c r="C166" t="s">
-        <v>399</v>
       </c>
       <c r="D166" t="s">
         <v>306</v>
@@ -6905,10 +6899,10 @@
         <v>304</v>
       </c>
       <c r="B167" t="s">
+        <v>399</v>
+      </c>
+      <c r="C167" t="s">
         <v>400</v>
-      </c>
-      <c r="C167" t="s">
-        <v>401</v>
       </c>
       <c r="D167" t="s">
         <v>306</v>
@@ -6919,10 +6913,10 @@
         <v>304</v>
       </c>
       <c r="B168" t="s">
+        <v>401</v>
+      </c>
+      <c r="C168" t="s">
         <v>402</v>
-      </c>
-      <c r="C168" t="s">
-        <v>403</v>
       </c>
       <c r="D168" t="s">
         <v>306</v>
@@ -6933,10 +6927,10 @@
         <v>304</v>
       </c>
       <c r="B169" t="s">
+        <v>403</v>
+      </c>
+      <c r="C169" t="s">
         <v>404</v>
-      </c>
-      <c r="C169" t="s">
-        <v>405</v>
       </c>
       <c r="D169" t="s">
         <v>306</v>
@@ -6947,10 +6941,10 @@
         <v>304</v>
       </c>
       <c r="B170" t="s">
+        <v>405</v>
+      </c>
+      <c r="C170" t="s">
         <v>406</v>
-      </c>
-      <c r="C170" t="s">
-        <v>407</v>
       </c>
       <c r="D170" t="s">
         <v>306</v>
@@ -6961,10 +6955,10 @@
         <v>304</v>
       </c>
       <c r="B171" t="s">
+        <v>407</v>
+      </c>
+      <c r="C171" t="s">
         <v>408</v>
-      </c>
-      <c r="C171" t="s">
-        <v>409</v>
       </c>
       <c r="D171" t="s">
         <v>306</v>
@@ -6975,10 +6969,10 @@
         <v>304</v>
       </c>
       <c r="B172" t="s">
+        <v>409</v>
+      </c>
+      <c r="C172" t="s">
         <v>410</v>
-      </c>
-      <c r="C172" t="s">
-        <v>411</v>
       </c>
       <c r="D172" t="s">
         <v>306</v>
@@ -6989,10 +6983,10 @@
         <v>304</v>
       </c>
       <c r="B173" t="s">
+        <v>411</v>
+      </c>
+      <c r="C173" t="s">
         <v>412</v>
-      </c>
-      <c r="C173" t="s">
-        <v>413</v>
       </c>
       <c r="D173" t="s">
         <v>306</v>
@@ -7003,10 +6997,10 @@
         <v>304</v>
       </c>
       <c r="B174" t="s">
+        <v>413</v>
+      </c>
+      <c r="C174" t="s">
         <v>414</v>
-      </c>
-      <c r="C174" t="s">
-        <v>415</v>
       </c>
       <c r="D174" t="s">
         <v>306</v>
@@ -7017,10 +7011,10 @@
         <v>304</v>
       </c>
       <c r="B175" t="s">
+        <v>415</v>
+      </c>
+      <c r="C175" t="s">
         <v>416</v>
-      </c>
-      <c r="C175" t="s">
-        <v>417</v>
       </c>
       <c r="D175" t="s">
         <v>306</v>
@@ -7031,10 +7025,10 @@
         <v>304</v>
       </c>
       <c r="B176" t="s">
+        <v>417</v>
+      </c>
+      <c r="C176" t="s">
         <v>418</v>
-      </c>
-      <c r="C176" t="s">
-        <v>419</v>
       </c>
       <c r="D176" t="s">
         <v>306</v>
@@ -7048,7 +7042,7 @@
         <v>14</v>
       </c>
       <c r="C177" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D177" t="s">
         <v>306</v>
@@ -7059,10 +7053,10 @@
         <v>304</v>
       </c>
       <c r="B178" t="s">
+        <v>420</v>
+      </c>
+      <c r="C178" t="s">
         <v>421</v>
-      </c>
-      <c r="C178" t="s">
-        <v>422</v>
       </c>
       <c r="D178" t="s">
         <v>306</v>
@@ -7073,10 +7067,10 @@
         <v>304</v>
       </c>
       <c r="B179" t="s">
+        <v>422</v>
+      </c>
+      <c r="C179" t="s">
         <v>423</v>
-      </c>
-      <c r="C179" t="s">
-        <v>424</v>
       </c>
       <c r="D179" t="s">
         <v>306</v>
@@ -7090,7 +7084,7 @@
         <v>291</v>
       </c>
       <c r="C180" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D180" t="s">
         <v>306</v>
@@ -7101,10 +7095,10 @@
         <v>304</v>
       </c>
       <c r="B181" t="s">
+        <v>425</v>
+      </c>
+      <c r="C181" t="s">
         <v>426</v>
-      </c>
-      <c r="C181" t="s">
-        <v>427</v>
       </c>
       <c r="D181" t="s">
         <v>306</v>
@@ -7115,10 +7109,10 @@
         <v>304</v>
       </c>
       <c r="B182" t="s">
+        <v>427</v>
+      </c>
+      <c r="C182" t="s">
         <v>428</v>
-      </c>
-      <c r="C182" t="s">
-        <v>429</v>
       </c>
       <c r="D182" t="s">
         <v>306</v>
@@ -7129,10 +7123,10 @@
         <v>304</v>
       </c>
       <c r="B183" t="s">
+        <v>429</v>
+      </c>
+      <c r="C183" t="s">
         <v>430</v>
-      </c>
-      <c r="C183" t="s">
-        <v>431</v>
       </c>
       <c r="D183" t="s">
         <v>306</v>
@@ -7143,10 +7137,10 @@
         <v>304</v>
       </c>
       <c r="B184" t="s">
+        <v>431</v>
+      </c>
+      <c r="C184" t="s">
         <v>432</v>
-      </c>
-      <c r="C184" t="s">
-        <v>433</v>
       </c>
       <c r="D184" t="s">
         <v>306</v>
@@ -7157,10 +7151,10 @@
         <v>304</v>
       </c>
       <c r="B185" t="s">
+        <v>433</v>
+      </c>
+      <c r="C185" t="s">
         <v>434</v>
-      </c>
-      <c r="C185" t="s">
-        <v>435</v>
       </c>
       <c r="D185" t="s">
         <v>306</v>
@@ -7171,10 +7165,10 @@
         <v>304</v>
       </c>
       <c r="B186" t="s">
+        <v>435</v>
+      </c>
+      <c r="C186" t="s">
         <v>436</v>
-      </c>
-      <c r="C186" t="s">
-        <v>437</v>
       </c>
       <c r="D186" t="s">
         <v>306</v>
@@ -7185,10 +7179,10 @@
         <v>304</v>
       </c>
       <c r="B187" t="s">
+        <v>437</v>
+      </c>
+      <c r="C187" t="s">
         <v>438</v>
-      </c>
-      <c r="C187" t="s">
-        <v>439</v>
       </c>
       <c r="D187" t="s">
         <v>306</v>
@@ -7199,10 +7193,10 @@
         <v>304</v>
       </c>
       <c r="B188" t="s">
+        <v>439</v>
+      </c>
+      <c r="C188" t="s">
         <v>440</v>
-      </c>
-      <c r="C188" t="s">
-        <v>441</v>
       </c>
       <c r="D188" t="s">
         <v>306</v>
@@ -7213,10 +7207,10 @@
         <v>304</v>
       </c>
       <c r="B189" t="s">
+        <v>441</v>
+      </c>
+      <c r="C189" t="s">
         <v>442</v>
-      </c>
-      <c r="C189" t="s">
-        <v>443</v>
       </c>
       <c r="D189" t="s">
         <v>306</v>
@@ -7227,10 +7221,10 @@
         <v>304</v>
       </c>
       <c r="B190" t="s">
+        <v>443</v>
+      </c>
+      <c r="C190" t="s">
         <v>444</v>
-      </c>
-      <c r="C190" t="s">
-        <v>445</v>
       </c>
       <c r="D190" t="s">
         <v>306</v>
@@ -7241,10 +7235,10 @@
         <v>304</v>
       </c>
       <c r="B191" t="s">
+        <v>445</v>
+      </c>
+      <c r="C191" t="s">
         <v>446</v>
-      </c>
-      <c r="C191" t="s">
-        <v>447</v>
       </c>
       <c r="D191" t="s">
         <v>306</v>
@@ -7255,10 +7249,10 @@
         <v>304</v>
       </c>
       <c r="B192" t="s">
+        <v>447</v>
+      </c>
+      <c r="C192" t="s">
         <v>448</v>
-      </c>
-      <c r="C192" t="s">
-        <v>449</v>
       </c>
       <c r="D192" t="s">
         <v>306</v>
@@ -7272,7 +7266,7 @@
         <v>90</v>
       </c>
       <c r="C193" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D193" t="s">
         <v>306</v>
@@ -7283,10 +7277,10 @@
         <v>304</v>
       </c>
       <c r="B194" t="s">
+        <v>450</v>
+      </c>
+      <c r="C194" t="s">
         <v>451</v>
-      </c>
-      <c r="C194" t="s">
-        <v>452</v>
       </c>
       <c r="D194" t="s">
         <v>306</v>
@@ -7297,10 +7291,10 @@
         <v>304</v>
       </c>
       <c r="B195" t="s">
+        <v>452</v>
+      </c>
+      <c r="C195" t="s">
         <v>453</v>
-      </c>
-      <c r="C195" t="s">
-        <v>454</v>
       </c>
       <c r="D195" t="s">
         <v>306</v>
@@ -7311,10 +7305,10 @@
         <v>304</v>
       </c>
       <c r="B196" t="s">
+        <v>454</v>
+      </c>
+      <c r="C196" t="s">
         <v>455</v>
-      </c>
-      <c r="C196" t="s">
-        <v>456</v>
       </c>
       <c r="D196" t="s">
         <v>306</v>
@@ -7325,10 +7319,10 @@
         <v>304</v>
       </c>
       <c r="B197" t="s">
+        <v>456</v>
+      </c>
+      <c r="C197" t="s">
         <v>457</v>
-      </c>
-      <c r="C197" t="s">
-        <v>458</v>
       </c>
       <c r="D197" t="s">
         <v>306</v>
@@ -7339,10 +7333,10 @@
         <v>304</v>
       </c>
       <c r="B198" t="s">
+        <v>458</v>
+      </c>
+      <c r="C198" t="s">
         <v>459</v>
-      </c>
-      <c r="C198" t="s">
-        <v>460</v>
       </c>
       <c r="D198" t="s">
         <v>306</v>
@@ -7356,7 +7350,7 @@
         <v>94</v>
       </c>
       <c r="C199" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D199" t="s">
         <v>306</v>
@@ -7370,7 +7364,7 @@
         <v>295</v>
       </c>
       <c r="C200" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D200" t="s">
         <v>306</v>
@@ -7381,10 +7375,10 @@
         <v>304</v>
       </c>
       <c r="B201" t="s">
+        <v>462</v>
+      </c>
+      <c r="C201" t="s">
         <v>463</v>
-      </c>
-      <c r="C201" t="s">
-        <v>464</v>
       </c>
       <c r="D201" t="s">
         <v>306</v>
@@ -7395,10 +7389,10 @@
         <v>304</v>
       </c>
       <c r="B202" t="s">
+        <v>464</v>
+      </c>
+      <c r="C202" t="s">
         <v>465</v>
-      </c>
-      <c r="C202" t="s">
-        <v>466</v>
       </c>
       <c r="D202" t="s">
         <v>306</v>
@@ -7409,10 +7403,10 @@
         <v>304</v>
       </c>
       <c r="B203" t="s">
+        <v>466</v>
+      </c>
+      <c r="C203" t="s">
         <v>467</v>
-      </c>
-      <c r="C203" t="s">
-        <v>468</v>
       </c>
       <c r="D203" t="s">
         <v>306</v>
@@ -7423,10 +7417,10 @@
         <v>304</v>
       </c>
       <c r="B204" t="s">
+        <v>468</v>
+      </c>
+      <c r="C204" t="s">
         <v>469</v>
-      </c>
-      <c r="C204" t="s">
-        <v>470</v>
       </c>
       <c r="D204" t="s">
         <v>306</v>
@@ -7437,10 +7431,10 @@
         <v>304</v>
       </c>
       <c r="B205" t="s">
+        <v>470</v>
+      </c>
+      <c r="C205" t="s">
         <v>471</v>
-      </c>
-      <c r="C205" t="s">
-        <v>472</v>
       </c>
       <c r="D205" t="s">
         <v>306</v>
@@ -7451,10 +7445,10 @@
         <v>304</v>
       </c>
       <c r="B206" t="s">
+        <v>472</v>
+      </c>
+      <c r="C206" t="s">
         <v>473</v>
-      </c>
-      <c r="C206" t="s">
-        <v>474</v>
       </c>
       <c r="D206" t="s">
         <v>306</v>
@@ -7468,7 +7462,7 @@
         <v>117</v>
       </c>
       <c r="C207" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D207" t="s">
         <v>306</v>
@@ -7482,7 +7476,7 @@
         <v>221</v>
       </c>
       <c r="C208" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D208" t="s">
         <v>306</v>
@@ -7493,10 +7487,10 @@
         <v>304</v>
       </c>
       <c r="B209" t="s">
+        <v>476</v>
+      </c>
+      <c r="C209" t="s">
         <v>477</v>
-      </c>
-      <c r="C209" t="s">
-        <v>478</v>
       </c>
       <c r="D209" t="s">
         <v>306</v>
@@ -7510,7 +7504,7 @@
         <v>216</v>
       </c>
       <c r="C210" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>306</v>
@@ -7521,10 +7515,10 @@
         <v>304</v>
       </c>
       <c r="B211" t="s">
+        <v>479</v>
+      </c>
+      <c r="C211" t="s">
         <v>480</v>
-      </c>
-      <c r="C211" t="s">
-        <v>481</v>
       </c>
       <c r="D211" t="s">
         <v>306</v>
@@ -7535,10 +7529,10 @@
         <v>304</v>
       </c>
       <c r="B212" t="s">
+        <v>481</v>
+      </c>
+      <c r="C212" t="s">
         <v>482</v>
-      </c>
-      <c r="C212" t="s">
-        <v>483</v>
       </c>
       <c r="D212" t="s">
         <v>306</v>
@@ -7549,10 +7543,10 @@
         <v>304</v>
       </c>
       <c r="B213" t="s">
+        <v>483</v>
+      </c>
+      <c r="C213" t="s">
         <v>484</v>
-      </c>
-      <c r="C213" t="s">
-        <v>485</v>
       </c>
       <c r="D213" t="s">
         <v>306</v>
@@ -7563,10 +7557,10 @@
         <v>304</v>
       </c>
       <c r="B214" t="s">
+        <v>485</v>
+      </c>
+      <c r="C214" t="s">
         <v>486</v>
-      </c>
-      <c r="C214" t="s">
-        <v>487</v>
       </c>
       <c r="D214" t="s">
         <v>306</v>
@@ -7577,10 +7571,10 @@
         <v>304</v>
       </c>
       <c r="B215" t="s">
+        <v>487</v>
+      </c>
+      <c r="C215" t="s">
         <v>488</v>
-      </c>
-      <c r="C215" t="s">
-        <v>489</v>
       </c>
       <c r="D215" t="s">
         <v>306</v>
@@ -7594,7 +7588,7 @@
         <v>17</v>
       </c>
       <c r="C216" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D216" t="s">
         <v>306</v>
@@ -7608,7 +7602,7 @@
         <v>156</v>
       </c>
       <c r="C217" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D217" t="s">
         <v>306</v>
@@ -7619,10 +7613,10 @@
         <v>304</v>
       </c>
       <c r="B218" t="s">
+        <v>491</v>
+      </c>
+      <c r="C218" t="s">
         <v>492</v>
-      </c>
-      <c r="C218" t="s">
-        <v>493</v>
       </c>
       <c r="D218" t="s">
         <v>306</v>
@@ -7630,789 +7624,789 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B219" t="s">
         <v>44</v>
       </c>
       <c r="C219" t="s">
+        <v>494</v>
+      </c>
+      <c r="D219" t="s">
         <v>495</v>
-      </c>
-      <c r="D219" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>496</v>
+      </c>
+      <c r="B220" t="s">
         <v>497</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>498</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>499</v>
-      </c>
-      <c r="D220" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B221" t="s">
         <v>23</v>
       </c>
       <c r="C221" t="s">
+        <v>501</v>
+      </c>
+      <c r="D221" t="s">
         <v>502</v>
-      </c>
-      <c r="D221" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B222" t="s">
+        <v>503</v>
+      </c>
+      <c r="C222" t="s">
         <v>504</v>
       </c>
-      <c r="C222" t="s">
-        <v>505</v>
-      </c>
       <c r="D222" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B223" t="s">
         <v>20</v>
       </c>
       <c r="C223" t="s">
+        <v>506</v>
+      </c>
+      <c r="D223" t="s">
         <v>507</v>
-      </c>
-      <c r="D223" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B224" t="s">
         <v>264</v>
       </c>
       <c r="C224" t="s">
+        <v>509</v>
+      </c>
+      <c r="D224" t="s">
         <v>510</v>
-      </c>
-      <c r="D224" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B225" t="s">
+        <v>511</v>
+      </c>
+      <c r="C225" t="s">
         <v>512</v>
       </c>
-      <c r="C225" t="s">
-        <v>513</v>
-      </c>
       <c r="D225" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B226" t="s">
         <v>354</v>
       </c>
       <c r="C226" t="s">
+        <v>514</v>
+      </c>
+      <c r="D226" t="s">
         <v>515</v>
-      </c>
-      <c r="D226" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>516</v>
+      </c>
+      <c r="B227" t="s">
         <v>517</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>518</v>
       </c>
-      <c r="C227" t="s">
+      <c r="D227" t="s">
         <v>519</v>
-      </c>
-      <c r="D227" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B228" t="s">
         <v>352</v>
       </c>
       <c r="C228" t="s">
+        <v>521</v>
+      </c>
+      <c r="D228" t="s">
         <v>522</v>
-      </c>
-      <c r="D228" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B229" t="s">
         <v>284</v>
       </c>
       <c r="C229" t="s">
+        <v>524</v>
+      </c>
+      <c r="D229" t="s">
         <v>525</v>
-      </c>
-      <c r="D229" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B230" t="s">
+        <v>526</v>
+      </c>
+      <c r="C230" t="s">
         <v>527</v>
       </c>
-      <c r="C230" t="s">
-        <v>528</v>
-      </c>
       <c r="D230" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B231" t="s">
         <v>324</v>
       </c>
       <c r="C231" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D231" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B232" t="s">
+        <v>529</v>
+      </c>
+      <c r="C232" t="s">
         <v>530</v>
       </c>
-      <c r="C232" t="s">
-        <v>531</v>
-      </c>
       <c r="D232" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B233" t="s">
+        <v>531</v>
+      </c>
+      <c r="C233" t="s">
         <v>532</v>
       </c>
-      <c r="C233" t="s">
-        <v>533</v>
-      </c>
       <c r="D233" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B234" t="s">
         <v>334</v>
       </c>
       <c r="C234" t="s">
+        <v>533</v>
+      </c>
+      <c r="D234" t="s">
+        <v>525</v>
+      </c>
+      <c r="E234" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="D234" t="s">
-        <v>526</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B235" t="s">
+        <v>535</v>
+      </c>
+      <c r="C235" t="s">
         <v>536</v>
       </c>
-      <c r="C235" t="s">
-        <v>537</v>
-      </c>
       <c r="D235" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B236" t="s">
+        <v>537</v>
+      </c>
+      <c r="C236" t="s">
         <v>538</v>
       </c>
-      <c r="C236" t="s">
-        <v>539</v>
-      </c>
       <c r="D236" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B237" t="s">
+        <v>539</v>
+      </c>
+      <c r="C237" t="s">
         <v>540</v>
       </c>
-      <c r="C237" t="s">
-        <v>541</v>
-      </c>
       <c r="D237" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B238" t="s">
         <v>33</v>
       </c>
       <c r="C238" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D238" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B239" t="s">
+        <v>542</v>
+      </c>
+      <c r="C239" t="s">
         <v>543</v>
       </c>
-      <c r="C239" t="s">
-        <v>544</v>
-      </c>
       <c r="D239" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B240" t="s">
         <v>20</v>
       </c>
       <c r="C240" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D240" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B241" t="s">
         <v>6</v>
       </c>
       <c r="C241" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D241" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B242" t="s">
         <v>53</v>
       </c>
       <c r="C242" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D242" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B243" t="s">
         <v>36</v>
       </c>
       <c r="C243" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D243" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B244" t="s">
+        <v>548</v>
+      </c>
+      <c r="C244" t="s">
         <v>549</v>
       </c>
-      <c r="C244" t="s">
-        <v>550</v>
-      </c>
       <c r="D244" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B245" t="s">
+        <v>550</v>
+      </c>
+      <c r="C245" t="s">
         <v>551</v>
       </c>
-      <c r="C245" t="s">
-        <v>552</v>
-      </c>
       <c r="D245" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B246" t="s">
+        <v>552</v>
+      </c>
+      <c r="C246" t="s">
         <v>553</v>
       </c>
-      <c r="C246" t="s">
-        <v>554</v>
-      </c>
       <c r="D246" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B247" t="s">
+        <v>554</v>
+      </c>
+      <c r="C247" t="s">
         <v>555</v>
       </c>
-      <c r="C247" t="s">
-        <v>556</v>
-      </c>
       <c r="D247" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B248" t="s">
+        <v>556</v>
+      </c>
+      <c r="C248" t="s">
         <v>557</v>
       </c>
-      <c r="C248" t="s">
-        <v>558</v>
-      </c>
       <c r="D248" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B249" t="s">
+        <v>558</v>
+      </c>
+      <c r="C249" t="s">
         <v>559</v>
       </c>
-      <c r="C249" t="s">
-        <v>560</v>
-      </c>
       <c r="D249" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B250" t="s">
         <v>66</v>
       </c>
       <c r="C250" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D250" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B251" t="s">
+        <v>561</v>
+      </c>
+      <c r="C251" t="s">
         <v>562</v>
       </c>
-      <c r="C251" t="s">
-        <v>563</v>
-      </c>
       <c r="D251" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B252" t="s">
         <v>76</v>
       </c>
       <c r="C252" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D252" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B253" t="s">
+        <v>564</v>
+      </c>
+      <c r="C253" t="s">
         <v>565</v>
       </c>
-      <c r="C253" t="s">
-        <v>566</v>
-      </c>
       <c r="D253" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B254" t="s">
+        <v>566</v>
+      </c>
+      <c r="C254" t="s">
         <v>567</v>
       </c>
-      <c r="C254" t="s">
-        <v>568</v>
-      </c>
       <c r="D254" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B255" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C255" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D255" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B256" t="s">
+        <v>569</v>
+      </c>
+      <c r="C256" t="s">
         <v>570</v>
       </c>
-      <c r="C256" t="s">
-        <v>571</v>
-      </c>
       <c r="D256" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B257" t="s">
+        <v>571</v>
+      </c>
+      <c r="C257" t="s">
         <v>572</v>
       </c>
-      <c r="C257" t="s">
-        <v>573</v>
-      </c>
       <c r="D257" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B258" t="s">
         <v>78</v>
       </c>
       <c r="C258" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D258" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B259" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C259" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D259" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B260" t="s">
+        <v>575</v>
+      </c>
+      <c r="C260" t="s">
         <v>576</v>
       </c>
-      <c r="C260" t="s">
-        <v>577</v>
-      </c>
       <c r="D260" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B261" t="s">
+        <v>577</v>
+      </c>
+      <c r="C261" t="s">
         <v>578</v>
       </c>
-      <c r="C261" t="s">
-        <v>579</v>
-      </c>
       <c r="D261" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B262" t="s">
+        <v>579</v>
+      </c>
+      <c r="C262" t="s">
         <v>580</v>
       </c>
-      <c r="C262" t="s">
-        <v>581</v>
-      </c>
       <c r="D262" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B263" t="s">
+        <v>581</v>
+      </c>
+      <c r="C263" t="s">
         <v>582</v>
       </c>
-      <c r="C263" t="s">
-        <v>583</v>
-      </c>
       <c r="D263" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B264" t="s">
+        <v>583</v>
+      </c>
+      <c r="C264" t="s">
         <v>584</v>
       </c>
-      <c r="C264" t="s">
-        <v>585</v>
-      </c>
       <c r="D264" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B265" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C265" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D265" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B266" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C266" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D266" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B267" t="s">
+        <v>587</v>
+      </c>
+      <c r="C267" t="s">
         <v>588</v>
       </c>
-      <c r="C267" t="s">
-        <v>589</v>
-      </c>
       <c r="D267" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B268" t="s">
         <v>96</v>
       </c>
       <c r="C268" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D268" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B269" t="s">
         <v>98</v>
       </c>
       <c r="C269" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D269" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B270" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C270" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D270" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B271" t="s">
         <v>100</v>
       </c>
       <c r="C271" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D271" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B272" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C272" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D272" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B273" t="s">
+        <v>594</v>
+      </c>
+      <c r="C273" t="s">
         <v>595</v>
       </c>
-      <c r="C273" t="s">
-        <v>596</v>
-      </c>
       <c r="D273" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B274" t="s">
+        <v>596</v>
+      </c>
+      <c r="C274" t="s">
         <v>597</v>
       </c>
-      <c r="C274" t="s">
-        <v>598</v>
-      </c>
       <c r="D274" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -8420,1047 +8414,1047 @@
         <v>291</v>
       </c>
       <c r="C275" t="s">
+        <v>598</v>
+      </c>
+      <c r="D275" t="s">
         <v>599</v>
-      </c>
-      <c r="D275" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B276" t="s">
         <v>197</v>
       </c>
       <c r="C276" t="s">
+        <v>601</v>
+      </c>
+      <c r="D276" t="s">
         <v>602</v>
-      </c>
-      <c r="D276" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>603</v>
+      </c>
+      <c r="B277" t="s">
+        <v>526</v>
+      </c>
+      <c r="C277" t="s">
         <v>604</v>
       </c>
-      <c r="B277" t="s">
-        <v>527</v>
-      </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
         <v>605</v>
-      </c>
-      <c r="D277" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B278" t="s">
         <v>20</v>
       </c>
       <c r="C278" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D278" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B279" t="s">
         <v>23</v>
       </c>
       <c r="C279" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D279" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B280" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C280" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D280" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B281" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C281" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D281" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B282" t="s">
+        <v>610</v>
+      </c>
+      <c r="C282" t="s">
         <v>611</v>
       </c>
-      <c r="C282" t="s">
-        <v>612</v>
-      </c>
       <c r="D282" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B283" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C283" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D283" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B284" t="s">
         <v>78</v>
       </c>
       <c r="C284" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D284" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B285" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C285" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D285" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B286" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C286" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D286" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B287" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C287" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D287" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B288" t="s">
         <v>20</v>
       </c>
       <c r="C288" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D288" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B289" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C289" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D289" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B290" t="s">
         <v>131</v>
       </c>
       <c r="C290" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D290" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B291" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C291" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D291" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B292" t="s">
         <v>78</v>
       </c>
       <c r="C292" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D292" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B293" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C293" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D293" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B294" t="s">
         <v>113</v>
       </c>
       <c r="C294" t="s">
+        <v>625</v>
+      </c>
+      <c r="D294" t="s">
         <v>626</v>
-      </c>
-      <c r="D294" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B295" t="s">
         <v>221</v>
       </c>
       <c r="C295" t="s">
+        <v>628</v>
+      </c>
+      <c r="D295" t="s">
         <v>629</v>
-      </c>
-      <c r="D295" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>630</v>
+      </c>
+      <c r="B296" t="s">
         <v>631</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>632</v>
       </c>
-      <c r="C296" t="s">
+      <c r="D296" t="s">
         <v>633</v>
-      </c>
-      <c r="D296" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B297" t="s">
         <v>317</v>
       </c>
       <c r="C297" t="s">
+        <v>635</v>
+      </c>
+      <c r="D297" t="s">
         <v>636</v>
-      </c>
-      <c r="D297" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B298" t="s">
         <v>284</v>
       </c>
       <c r="C298" t="s">
+        <v>637</v>
+      </c>
+      <c r="D298" t="s">
         <v>638</v>
-      </c>
-      <c r="D298" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B299" t="s">
         <v>33</v>
       </c>
       <c r="C299" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D299" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B300" t="s">
         <v>346</v>
       </c>
       <c r="C300" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D300" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B301" t="s">
         <v>197</v>
       </c>
       <c r="C301" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D301" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B302" t="s">
         <v>38</v>
       </c>
       <c r="C302" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D302" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B303" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C303" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D303" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B304" t="s">
         <v>344</v>
       </c>
       <c r="C304" t="s">
+        <v>645</v>
+      </c>
+      <c r="D304" t="s">
         <v>646</v>
-      </c>
-      <c r="D304" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B305" t="s">
+        <v>647</v>
+      </c>
+      <c r="C305" t="s">
         <v>648</v>
       </c>
-      <c r="C305" t="s">
-        <v>649</v>
-      </c>
       <c r="D305" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B306" t="s">
         <v>267</v>
       </c>
       <c r="C306" t="s">
+        <v>650</v>
+      </c>
+      <c r="D306" t="s">
         <v>651</v>
-      </c>
-      <c r="D306" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>652</v>
+      </c>
+      <c r="B307" t="s">
         <v>653</v>
       </c>
-      <c r="B307" t="s">
+      <c r="C307" t="s">
         <v>654</v>
       </c>
-      <c r="C307" t="s">
+      <c r="D307" t="s">
         <v>655</v>
-      </c>
-      <c r="D307" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B308" t="s">
         <v>109</v>
       </c>
       <c r="C308" t="s">
+        <v>657</v>
+      </c>
+      <c r="D308" t="s">
         <v>658</v>
-      </c>
-      <c r="D308" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B309" t="s">
         <v>302</v>
       </c>
       <c r="C309" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>661</v>
+      </c>
+      <c r="B310" t="s">
         <v>662</v>
       </c>
-      <c r="B310" t="s">
+      <c r="C310" t="s">
         <v>663</v>
       </c>
-      <c r="C310" t="s">
+      <c r="D310" t="s">
         <v>664</v>
-      </c>
-      <c r="D310" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B311" t="s">
+        <v>665</v>
+      </c>
+      <c r="C311" t="s">
         <v>666</v>
       </c>
-      <c r="C311" t="s">
-        <v>667</v>
-      </c>
       <c r="D311" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B312" t="s">
+        <v>667</v>
+      </c>
+      <c r="C312" t="s">
         <v>668</v>
       </c>
-      <c r="C312" t="s">
-        <v>669</v>
-      </c>
       <c r="D312" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B313" t="s">
         <v>131</v>
       </c>
       <c r="C313" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D313" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B314" t="s">
         <v>216</v>
       </c>
       <c r="C314" t="s">
+        <v>671</v>
+      </c>
+      <c r="D314" t="s">
         <v>672</v>
-      </c>
-      <c r="D314" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B315" t="s">
         <v>60</v>
       </c>
       <c r="C315" t="s">
+        <v>674</v>
+      </c>
+      <c r="D315" t="s">
         <v>675</v>
-      </c>
-      <c r="D315" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B316" t="s">
         <v>109</v>
       </c>
       <c r="C316" t="s">
+        <v>677</v>
+      </c>
+      <c r="D316" t="s">
         <v>678</v>
-      </c>
-      <c r="D316" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>679</v>
+      </c>
+      <c r="C317" t="s">
         <v>680</v>
       </c>
-      <c r="C317" t="s">
+      <c r="D317" t="s">
         <v>681</v>
-      </c>
-      <c r="D317" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>682</v>
+      </c>
+      <c r="B318" t="s">
         <v>683</v>
       </c>
-      <c r="B318" t="s">
+      <c r="C318" t="s">
         <v>684</v>
       </c>
-      <c r="C318" t="s">
+      <c r="D318" t="s">
         <v>685</v>
-      </c>
-      <c r="D318" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>686</v>
+      </c>
+      <c r="B319" t="s">
         <v>687</v>
       </c>
-      <c r="B319" t="s">
+      <c r="C319" t="s">
         <v>688</v>
       </c>
-      <c r="C319" t="s">
+      <c r="D319" t="s">
         <v>689</v>
-      </c>
-      <c r="D319" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>690</v>
+      </c>
+      <c r="B320" t="s">
+        <v>422</v>
+      </c>
+      <c r="C320" t="s">
         <v>691</v>
       </c>
-      <c r="B320" t="s">
-        <v>423</v>
-      </c>
-      <c r="C320" t="s">
+      <c r="D320" t="s">
         <v>692</v>
-      </c>
-      <c r="D320" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>693</v>
+      </c>
+      <c r="B321" t="s">
         <v>694</v>
       </c>
-      <c r="B321" t="s">
+      <c r="C321" t="s">
         <v>695</v>
       </c>
-      <c r="C321" t="s">
+      <c r="D321" t="s">
         <v>696</v>
-      </c>
-      <c r="D321" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B322" t="s">
         <v>44</v>
       </c>
       <c r="C322" t="s">
+        <v>698</v>
+      </c>
+      <c r="D322" t="s">
         <v>699</v>
-      </c>
-      <c r="D322" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B323" t="s">
         <v>36</v>
       </c>
       <c r="C323" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D323" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>701</v>
+      </c>
+      <c r="B324" t="s">
         <v>702</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
         <v>703</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>704</v>
-      </c>
-      <c r="D324" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B325" t="s">
+        <v>705</v>
+      </c>
+      <c r="C325" t="s">
         <v>706</v>
       </c>
-      <c r="C325" t="s">
+      <c r="D325" t="s">
         <v>707</v>
-      </c>
-      <c r="D325" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B326" t="s">
+        <v>708</v>
+      </c>
+      <c r="C326" t="s">
         <v>709</v>
       </c>
-      <c r="C326" t="s">
-        <v>710</v>
-      </c>
       <c r="D326" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B327" t="s">
         <v>131</v>
       </c>
       <c r="C327" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D327" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>711</v>
+      </c>
+      <c r="C328" t="s">
         <v>712</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" t="s">
         <v>713</v>
-      </c>
-      <c r="D328" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>714</v>
+      </c>
+      <c r="B329" t="s">
+        <v>376</v>
+      </c>
+      <c r="C329" t="s">
         <v>715</v>
       </c>
-      <c r="B329" t="s">
-        <v>377</v>
-      </c>
-      <c r="C329" t="s">
+      <c r="D329" t="s">
         <v>716</v>
-      </c>
-      <c r="D329" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B330" t="s">
         <v>33</v>
       </c>
       <c r="C330" t="s">
+        <v>718</v>
+      </c>
+      <c r="D330" t="s">
         <v>719</v>
-      </c>
-      <c r="D330" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B331" t="s">
         <v>197</v>
       </c>
       <c r="C331" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D331" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B332" t="s">
+        <v>721</v>
+      </c>
+      <c r="C332" t="s">
         <v>722</v>
       </c>
-      <c r="C332" t="s">
-        <v>723</v>
-      </c>
       <c r="D332" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B333" t="s">
+        <v>723</v>
+      </c>
+      <c r="C333" t="s">
         <v>724</v>
       </c>
-      <c r="C333" t="s">
-        <v>725</v>
-      </c>
       <c r="D333" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>725</v>
+      </c>
+      <c r="B334" t="s">
         <v>726</v>
       </c>
-      <c r="B334" t="s">
+      <c r="C334" t="s">
         <v>727</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>728</v>
-      </c>
-      <c r="D334" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B335" t="s">
         <v>131</v>
       </c>
       <c r="C335" t="s">
+        <v>730</v>
+      </c>
+      <c r="D335" t="s">
         <v>731</v>
-      </c>
-      <c r="D335" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B336" t="s">
+        <v>732</v>
+      </c>
+      <c r="C336" t="s">
         <v>733</v>
       </c>
-      <c r="C336" t="s">
-        <v>734</v>
-      </c>
       <c r="D336" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>734</v>
+      </c>
+      <c r="B337" t="s">
+        <v>587</v>
+      </c>
+      <c r="C337" t="s">
         <v>735</v>
-      </c>
-      <c r="B337" t="s">
-        <v>588</v>
-      </c>
-      <c r="C337" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>736</v>
+      </c>
+      <c r="B338" t="s">
         <v>737</v>
       </c>
-      <c r="B338" t="s">
+      <c r="C338" t="s">
         <v>738</v>
-      </c>
-      <c r="C338" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>739</v>
+      </c>
+      <c r="B339" t="s">
         <v>740</v>
       </c>
-      <c r="B339" t="s">
+      <c r="C339" t="s">
         <v>741</v>
-      </c>
-      <c r="C339" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B340" t="s">
         <v>53</v>
       </c>
       <c r="C340" t="s">
+        <v>743</v>
+      </c>
+      <c r="D340" t="s">
         <v>744</v>
-      </c>
-      <c r="D340" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B341" t="s">
         <v>20</v>
       </c>
       <c r="C341" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B342" t="s">
         <v>302</v>
       </c>
       <c r="C342" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B343" t="s">
         <v>302</v>
       </c>
       <c r="C343" t="s">
+        <v>750</v>
+      </c>
+      <c r="D343" t="s">
         <v>751</v>
-      </c>
-      <c r="D343" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B344" t="s">
         <v>109</v>
       </c>
       <c r="C344" t="s">
+        <v>753</v>
+      </c>
+      <c r="D344" t="s">
         <v>754</v>
-      </c>
-      <c r="D344" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>755</v>
+      </c>
+      <c r="B345" t="s">
         <v>756</v>
       </c>
-      <c r="B345" t="s">
+      <c r="C345" t="s">
         <v>757</v>
       </c>
-      <c r="C345" t="s">
+      <c r="D345" t="s">
         <v>758</v>
-      </c>
-      <c r="D345" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>755</v>
+      </c>
+      <c r="B346" t="s">
         <v>756</v>
       </c>
-      <c r="B346" t="s">
-        <v>757</v>
-      </c>
       <c r="C346" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D346" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>760</v>
+      </c>
+      <c r="B347" t="s">
         <v>761</v>
       </c>
-      <c r="B347" t="s">
+      <c r="C347" t="s">
         <v>762</v>
       </c>
-      <c r="C347" t="s">
+      <c r="D347" t="s">
         <v>763</v>
-      </c>
-      <c r="D347" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>764</v>
+      </c>
+      <c r="B348" t="s">
         <v>765</v>
       </c>
-      <c r="B348" t="s">
+      <c r="C348" t="s">
         <v>766</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" t="s">
         <v>767</v>
-      </c>
-      <c r="D348" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B349" t="s">
         <v>302</v>
       </c>
       <c r="C349" t="s">
+        <v>769</v>
+      </c>
+      <c r="D349" t="s">
         <v>770</v>
-      </c>
-      <c r="D349" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>771</v>
+      </c>
+      <c r="B350" t="s">
+        <v>443</v>
+      </c>
+      <c r="C350" t="s">
         <v>772</v>
       </c>
-      <c r="B350" t="s">
-        <v>444</v>
-      </c>
-      <c r="C350" t="s">
+      <c r="D350" t="s">
         <v>773</v>
-      </c>
-      <c r="D350" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B351" t="s">
         <v>302</v>
       </c>
       <c r="C351" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D351" t="s">
         <v>245</v>
@@ -9468,13 +9462,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B352" t="s">
         <v>117</v>
       </c>
       <c r="C352" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D352" t="s">
         <v>245</v>
@@ -9482,13 +9476,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B353" t="s">
         <v>221</v>
       </c>
       <c r="C353" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D353" t="s">
         <v>245</v>
@@ -9496,2836 +9490,2836 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B354" t="s">
         <v>109</v>
       </c>
       <c r="C354" t="s">
+        <v>779</v>
+      </c>
+      <c r="D354" t="s">
         <v>780</v>
-      </c>
-      <c r="D354" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>781</v>
+      </c>
+      <c r="B355" t="s">
         <v>782</v>
       </c>
-      <c r="B355" t="s">
+      <c r="C355" t="s">
         <v>783</v>
       </c>
-      <c r="C355" t="s">
+      <c r="D355" t="s">
         <v>784</v>
-      </c>
-      <c r="D355" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B356" t="s">
+        <v>785</v>
+      </c>
+      <c r="C356" t="s">
         <v>786</v>
       </c>
-      <c r="C356" t="s">
-        <v>787</v>
-      </c>
       <c r="D356" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>787</v>
+      </c>
+      <c r="B357" t="s">
+        <v>569</v>
+      </c>
+      <c r="C357" t="s">
         <v>788</v>
-      </c>
-      <c r="B357" t="s">
-        <v>570</v>
-      </c>
-      <c r="C357" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>789</v>
+      </c>
+      <c r="B358" t="s">
+        <v>569</v>
+      </c>
+      <c r="C358" t="s">
         <v>790</v>
-      </c>
-      <c r="B358" t="s">
-        <v>570</v>
-      </c>
-      <c r="C358" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>791</v>
+      </c>
+      <c r="B359" t="s">
         <v>792</v>
       </c>
-      <c r="B359" t="s">
+      <c r="C359" t="s">
         <v>793</v>
       </c>
-      <c r="C359" t="s">
+      <c r="D359" t="s">
         <v>794</v>
-      </c>
-      <c r="D359" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B360" t="s">
         <v>20</v>
       </c>
       <c r="C360" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>797</v>
+      </c>
+      <c r="B361" t="s">
         <v>798</v>
       </c>
-      <c r="B361" t="s">
+      <c r="C361" t="s">
         <v>799</v>
       </c>
-      <c r="C361" t="s">
+      <c r="D361" t="s">
         <v>800</v>
-      </c>
-      <c r="D361" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B362" t="s">
         <v>216</v>
       </c>
       <c r="C362" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B363" t="s">
         <v>117</v>
       </c>
       <c r="C363" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>805</v>
+      </c>
+      <c r="B364" t="s">
         <v>806</v>
       </c>
-      <c r="B364" t="s">
+      <c r="C364" t="s">
         <v>807</v>
       </c>
-      <c r="C364" t="s">
+      <c r="D364" t="s">
         <v>808</v>
-      </c>
-      <c r="D364" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>809</v>
+      </c>
+      <c r="B365" t="s">
         <v>810</v>
       </c>
-      <c r="B365" t="s">
+      <c r="C365" t="s">
         <v>811</v>
       </c>
-      <c r="C365" t="s">
+      <c r="D365" t="s">
         <v>812</v>
-      </c>
-      <c r="D365" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>813</v>
+      </c>
+      <c r="B366" t="s">
         <v>814</v>
       </c>
-      <c r="B366" t="s">
+      <c r="C366" t="s">
         <v>815</v>
       </c>
-      <c r="C366" t="s">
+      <c r="D366" t="s">
         <v>816</v>
-      </c>
-      <c r="D366" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B367" t="s">
         <v>243</v>
       </c>
       <c r="C367" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D367" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B368" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C368" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D368" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B369" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C369" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D369" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>820</v>
+      </c>
+      <c r="B370" t="s">
         <v>821</v>
       </c>
-      <c r="B370" t="s">
+      <c r="C370" t="s">
         <v>822</v>
       </c>
-      <c r="C370" t="s">
+      <c r="D370" t="s">
         <v>823</v>
-      </c>
-      <c r="D370" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B371" t="s">
         <v>346</v>
       </c>
       <c r="C371" t="s">
+        <v>825</v>
+      </c>
+      <c r="D371" t="s">
         <v>826</v>
-      </c>
-      <c r="D371" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B372" t="s">
         <v>291</v>
       </c>
       <c r="C372" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D372" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B373" t="s">
         <v>346</v>
       </c>
       <c r="C373" t="s">
+        <v>829</v>
+      </c>
+      <c r="D373" t="s">
         <v>830</v>
-      </c>
-      <c r="D373" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B374" t="s">
         <v>243</v>
       </c>
       <c r="C374" t="s">
+        <v>832</v>
+      </c>
+      <c r="D374" t="s">
         <v>833</v>
-      </c>
-      <c r="D374" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B375" t="s">
         <v>302</v>
       </c>
       <c r="C375" t="s">
+        <v>835</v>
+      </c>
+      <c r="D375" t="s">
         <v>836</v>
-      </c>
-      <c r="D375" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>837</v>
+      </c>
+      <c r="B376" t="s">
+        <v>561</v>
+      </c>
+      <c r="C376" t="s">
         <v>838</v>
       </c>
-      <c r="B376" t="s">
-        <v>562</v>
-      </c>
-      <c r="C376" t="s">
+      <c r="D376" t="s">
         <v>839</v>
-      </c>
-      <c r="D376" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B377" t="s">
         <v>302</v>
       </c>
       <c r="C377" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>842</v>
+      </c>
+      <c r="B378" t="s">
         <v>843</v>
       </c>
-      <c r="B378" t="s">
+      <c r="C378" t="s">
         <v>844</v>
       </c>
-      <c r="C378" t="s">
+      <c r="D378" t="s">
         <v>845</v>
-      </c>
-      <c r="D378" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B379" t="s">
         <v>117</v>
       </c>
       <c r="C379" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>848</v>
+      </c>
+      <c r="B380" t="s">
         <v>849</v>
       </c>
-      <c r="B380" t="s">
+      <c r="C380" t="s">
         <v>850</v>
-      </c>
-      <c r="C380" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B381" t="s">
         <v>117</v>
       </c>
       <c r="C381" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>853</v>
+      </c>
+      <c r="B382" t="s">
+        <v>401</v>
+      </c>
+      <c r="C382" t="s">
         <v>854</v>
       </c>
-      <c r="B382" t="s">
-        <v>402</v>
-      </c>
-      <c r="C382" t="s">
+      <c r="D382" t="s">
         <v>855</v>
-      </c>
-      <c r="D382" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>856</v>
+      </c>
+      <c r="B383" t="s">
         <v>857</v>
       </c>
-      <c r="B383" t="s">
+      <c r="C383" t="s">
         <v>858</v>
       </c>
-      <c r="C383" t="s">
+      <c r="D383" t="s">
         <v>859</v>
-      </c>
-      <c r="D383" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B384" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C384" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D384" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B385" t="s">
         <v>109</v>
       </c>
       <c r="C385" t="s">
+        <v>862</v>
+      </c>
+      <c r="D385" t="s">
         <v>863</v>
-      </c>
-      <c r="D385" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>864</v>
+      </c>
+      <c r="B386" t="s">
+        <v>411</v>
+      </c>
+      <c r="C386" t="s">
         <v>865</v>
       </c>
-      <c r="B386" t="s">
-        <v>412</v>
-      </c>
-      <c r="C386" t="s">
+      <c r="D386" t="s">
         <v>866</v>
-      </c>
-      <c r="D386" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>867</v>
+      </c>
+      <c r="B387" t="s">
+        <v>379</v>
+      </c>
+      <c r="C387" t="s">
         <v>868</v>
       </c>
-      <c r="B387" t="s">
-        <v>380</v>
-      </c>
-      <c r="C387" t="s">
+      <c r="D387" t="s">
         <v>869</v>
-      </c>
-      <c r="D387" t="s">
-        <v>870</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>870</v>
+      </c>
+      <c r="B388" t="s">
+        <v>429</v>
+      </c>
+      <c r="C388" t="s">
         <v>871</v>
       </c>
-      <c r="B388" t="s">
-        <v>430</v>
-      </c>
-      <c r="C388" t="s">
+      <c r="D388" t="s">
         <v>872</v>
-      </c>
-      <c r="D388" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>873</v>
+      </c>
+      <c r="B389" t="s">
         <v>874</v>
       </c>
-      <c r="B389" t="s">
+      <c r="C389" t="s">
         <v>875</v>
-      </c>
-      <c r="C389" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B390" t="s">
         <v>109</v>
       </c>
       <c r="C390" t="s">
+        <v>877</v>
+      </c>
+      <c r="D390" t="s">
         <v>878</v>
-      </c>
-      <c r="D390" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B391" t="s">
         <v>302</v>
       </c>
       <c r="C391" t="s">
+        <v>880</v>
+      </c>
+      <c r="D391" t="s">
         <v>881</v>
-      </c>
-      <c r="D391" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B392" t="s">
         <v>117</v>
       </c>
       <c r="C392" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D392" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>883</v>
+      </c>
+      <c r="B393" t="s">
         <v>884</v>
       </c>
-      <c r="B393" t="s">
+      <c r="C393" t="s">
         <v>885</v>
       </c>
-      <c r="C393" t="s">
+      <c r="D393" t="s">
         <v>886</v>
-      </c>
-      <c r="D393" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B394" t="s">
         <v>302</v>
       </c>
       <c r="C394" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B395" t="s">
         <v>20</v>
       </c>
       <c r="C395" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B396" t="s">
         <v>334</v>
       </c>
       <c r="C396" t="s">
+        <v>892</v>
+      </c>
+      <c r="D396" t="s">
         <v>893</v>
-      </c>
-      <c r="D396" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>894</v>
+      </c>
+      <c r="B397" t="s">
         <v>895</v>
       </c>
-      <c r="B397" t="s">
+      <c r="C397" t="s">
         <v>896</v>
       </c>
-      <c r="C397" t="s">
+      <c r="D397" t="s">
         <v>897</v>
-      </c>
-      <c r="D397" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B398" t="s">
+        <v>898</v>
+      </c>
+      <c r="C398" t="s">
         <v>899</v>
       </c>
-      <c r="C398" t="s">
+      <c r="D398" t="s">
         <v>900</v>
-      </c>
-      <c r="D398" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B399" t="s">
+        <v>901</v>
+      </c>
+      <c r="C399" t="s">
         <v>902</v>
       </c>
-      <c r="C399" t="s">
-        <v>903</v>
-      </c>
       <c r="D399" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B400" t="s">
         <v>129</v>
       </c>
       <c r="C400" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D400" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B401" t="s">
+        <v>904</v>
+      </c>
+      <c r="C401" t="s">
         <v>905</v>
       </c>
-      <c r="C401" t="s">
-        <v>906</v>
-      </c>
       <c r="D401" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>906</v>
+      </c>
+      <c r="B402" t="s">
+        <v>413</v>
+      </c>
+      <c r="C402" t="s">
         <v>907</v>
-      </c>
-      <c r="B402" t="s">
-        <v>414</v>
-      </c>
-      <c r="C402" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B403" t="s">
         <v>20</v>
       </c>
       <c r="C403" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>910</v>
+      </c>
+      <c r="B404" t="s">
+        <v>552</v>
+      </c>
+      <c r="C404" t="s">
         <v>911</v>
-      </c>
-      <c r="B404" t="s">
-        <v>553</v>
-      </c>
-      <c r="C404" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B405" t="s">
         <v>14</v>
       </c>
       <c r="C405" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C406" t="s">
+        <v>914</v>
+      </c>
+      <c r="D406" t="s">
         <v>915</v>
-      </c>
-      <c r="D406" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B407" t="s">
         <v>109</v>
       </c>
       <c r="C407" t="s">
+        <v>917</v>
+      </c>
+      <c r="D407" t="s">
         <v>918</v>
-      </c>
-      <c r="D407" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B408" t="s">
+        <v>919</v>
+      </c>
+      <c r="C408" t="s">
         <v>920</v>
       </c>
-      <c r="C408" t="s">
-        <v>921</v>
-      </c>
       <c r="D408" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B409" t="s">
         <v>20</v>
       </c>
       <c r="C409" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B410" t="s">
         <v>20</v>
       </c>
       <c r="C410" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>925</v>
+      </c>
+      <c r="B411" t="s">
+        <v>491</v>
+      </c>
+      <c r="C411" t="s">
         <v>926</v>
       </c>
-      <c r="B411" t="s">
-        <v>492</v>
-      </c>
-      <c r="C411" t="s">
+      <c r="D411" t="s">
         <v>927</v>
-      </c>
-      <c r="D411" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B412" t="s">
         <v>62</v>
       </c>
       <c r="C412" t="s">
+        <v>929</v>
+      </c>
+      <c r="D412" t="s">
         <v>930</v>
-      </c>
-      <c r="D412" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B413" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C413" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D413" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>932</v>
+      </c>
+      <c r="B414" t="s">
         <v>933</v>
       </c>
-      <c r="B414" t="s">
+      <c r="C414" t="s">
         <v>934</v>
       </c>
-      <c r="C414" t="s">
+      <c r="D414" t="s">
         <v>935</v>
-      </c>
-      <c r="D414" t="s">
-        <v>936</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>936</v>
+      </c>
+      <c r="B415" t="s">
+        <v>933</v>
+      </c>
+      <c r="C415" t="s">
         <v>937</v>
       </c>
-      <c r="B415" t="s">
-        <v>934</v>
-      </c>
-      <c r="C415" t="s">
-        <v>938</v>
-      </c>
       <c r="D415" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B416" t="s">
+        <v>938</v>
+      </c>
+      <c r="C416" t="s">
         <v>939</v>
       </c>
-      <c r="C416" t="s">
+      <c r="D416" t="s">
         <v>940</v>
-      </c>
-      <c r="D416" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B417" t="s">
         <v>90</v>
       </c>
       <c r="C417" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B418" t="s">
         <v>94</v>
       </c>
       <c r="C418" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B419" t="s">
         <v>221</v>
       </c>
       <c r="C419" t="s">
+        <v>945</v>
+      </c>
+      <c r="D419" t="s">
         <v>946</v>
-      </c>
-      <c r="D419" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B420" t="s">
         <v>36</v>
       </c>
       <c r="C420" t="s">
+        <v>948</v>
+      </c>
+      <c r="D420" t="s">
         <v>949</v>
-      </c>
-      <c r="D420" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B421" t="s">
         <v>109</v>
       </c>
       <c r="C421" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B422" t="s">
         <v>11</v>
       </c>
       <c r="C422" t="s">
+        <v>953</v>
+      </c>
+      <c r="D422" t="s">
         <v>954</v>
-      </c>
-      <c r="D422" t="s">
-        <v>955</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B423" t="s">
         <v>302</v>
       </c>
       <c r="C423" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D423" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>956</v>
+      </c>
+      <c r="B424" t="s">
         <v>957</v>
       </c>
-      <c r="B424" t="s">
+      <c r="C424" t="s">
         <v>958</v>
       </c>
-      <c r="C424" t="s">
+      <c r="D424" t="s">
         <v>959</v>
-      </c>
-      <c r="D424" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B425" t="s">
+        <v>960</v>
+      </c>
+      <c r="C425" t="s">
         <v>961</v>
       </c>
-      <c r="C425" t="s">
-        <v>962</v>
-      </c>
       <c r="D425" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B426" t="s">
         <v>270</v>
       </c>
       <c r="C426" t="s">
+        <v>963</v>
+      </c>
+      <c r="D426" t="s">
         <v>964</v>
-      </c>
-      <c r="D426" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B427" t="s">
         <v>270</v>
       </c>
       <c r="C427" t="s">
+        <v>966</v>
+      </c>
+      <c r="D427" t="s">
         <v>967</v>
-      </c>
-      <c r="D427" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B428" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C428" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D428" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>969</v>
+      </c>
+      <c r="B429" t="s">
         <v>970</v>
       </c>
-      <c r="B429" t="s">
+      <c r="C429" t="s">
         <v>971</v>
       </c>
-      <c r="C429" t="s">
+      <c r="D429" t="s">
         <v>972</v>
-      </c>
-      <c r="D429" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>973</v>
+      </c>
+      <c r="B430" t="s">
+        <v>814</v>
+      </c>
+      <c r="C430" t="s">
         <v>974</v>
       </c>
-      <c r="B430" t="s">
-        <v>815</v>
-      </c>
-      <c r="C430" t="s">
+      <c r="D430" t="s">
         <v>975</v>
-      </c>
-      <c r="D430" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B431" t="s">
+        <v>976</v>
+      </c>
+      <c r="C431" t="s">
         <v>977</v>
       </c>
-      <c r="C431" t="s">
+      <c r="D431" t="s">
+        <v>975</v>
+      </c>
+      <c r="E431" s="3" t="s">
         <v>978</v>
-      </c>
-      <c r="D431" t="s">
-        <v>976</v>
-      </c>
-      <c r="E431" s="3" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B432" t="s">
         <v>33</v>
       </c>
       <c r="C432" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D432" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B433" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C433" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D433" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B434" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C434" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D434" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B435" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C435" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D435" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B436" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C436" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D436" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B437" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C437" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D437" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B438" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C438" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D438" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B439" t="s">
+        <v>986</v>
+      </c>
+      <c r="C439" t="s">
         <v>987</v>
       </c>
-      <c r="C439" t="s">
+      <c r="D439" t="s">
+        <v>975</v>
+      </c>
+      <c r="E439" s="3" t="s">
         <v>988</v>
-      </c>
-      <c r="D439" t="s">
-        <v>976</v>
-      </c>
-      <c r="E439" s="3" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B440" t="s">
+        <v>989</v>
+      </c>
+      <c r="C440" t="s">
         <v>990</v>
       </c>
-      <c r="C440" t="s">
-        <v>991</v>
-      </c>
       <c r="D440" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B441" t="s">
+        <v>991</v>
+      </c>
+      <c r="C441" t="s">
         <v>992</v>
       </c>
-      <c r="C441" t="s">
-        <v>993</v>
-      </c>
       <c r="D441" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>993</v>
+      </c>
+      <c r="B442" t="s">
         <v>994</v>
       </c>
-      <c r="B442" t="s">
+      <c r="C442" t="s">
         <v>995</v>
-      </c>
-      <c r="C442" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B443" t="s">
+        <v>996</v>
+      </c>
+      <c r="C443" t="s">
         <v>997</v>
-      </c>
-      <c r="C443" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B444" t="s">
+        <v>998</v>
+      </c>
+      <c r="C444" t="s">
         <v>999</v>
-      </c>
-      <c r="C444" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B445" t="s">
         <v>43</v>
       </c>
       <c r="C445" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D445" t="s">
         <v>1002</v>
-      </c>
-      <c r="D445" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B446" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C446" t="s">
         <v>1004</v>
       </c>
-      <c r="C446" t="s">
-        <v>1005</v>
-      </c>
       <c r="D446" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B447" t="s">
         <v>109</v>
       </c>
       <c r="C447" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D447" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B448" t="s">
         <v>1007</v>
       </c>
-      <c r="B448" t="s">
+      <c r="C448" t="s">
         <v>1008</v>
       </c>
-      <c r="C448" t="s">
+      <c r="D448" t="s">
         <v>1009</v>
-      </c>
-      <c r="D448" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B449" t="s">
         <v>1011</v>
       </c>
-      <c r="B449" t="s">
+      <c r="C449" t="s">
         <v>1012</v>
       </c>
-      <c r="C449" t="s">
-        <v>1013</v>
-      </c>
       <c r="D449" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B450" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C450" t="s">
         <v>1014</v>
       </c>
-      <c r="C450" t="s">
-        <v>1015</v>
-      </c>
       <c r="D450" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B451" t="s">
         <v>346</v>
       </c>
       <c r="C451" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B452" t="s">
         <v>1018</v>
       </c>
-      <c r="B452" t="s">
+      <c r="C452" t="s">
         <v>1019</v>
       </c>
-      <c r="C452" t="s">
+      <c r="D452" t="s">
         <v>1020</v>
-      </c>
-      <c r="D452" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B453" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C453" t="s">
         <v>1022</v>
       </c>
-      <c r="C453" t="s">
-        <v>1023</v>
-      </c>
       <c r="D453" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B454" t="s">
         <v>33</v>
       </c>
       <c r="C454" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D454" t="s">
         <v>1025</v>
-      </c>
-      <c r="D454" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B455" t="s">
         <v>117</v>
       </c>
       <c r="C455" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B456" t="s">
         <v>324</v>
       </c>
       <c r="C456" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D456" t="s">
         <v>1030</v>
-      </c>
-      <c r="D456" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B457" t="s">
         <v>152</v>
       </c>
       <c r="C457" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D457" t="s">
         <v>1033</v>
-      </c>
-      <c r="D457" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B458" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C458" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D458" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B459" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C459" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D459" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B460" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C460" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D460" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B461" t="s">
         <v>145</v>
       </c>
       <c r="C461" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D461" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B462" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C462" t="s">
         <v>1039</v>
       </c>
-      <c r="C462" t="s">
-        <v>1040</v>
-      </c>
       <c r="D462" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B463" t="s">
         <v>117</v>
       </c>
       <c r="C463" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B464" t="s">
         <v>9</v>
       </c>
       <c r="C464" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B465" t="s">
         <v>145</v>
       </c>
       <c r="C465" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B466" t="s">
         <v>302</v>
       </c>
       <c r="C466" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B467" t="s">
         <v>352</v>
       </c>
       <c r="C467" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D467" t="s">
         <v>1050</v>
-      </c>
-      <c r="D467" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B468" t="s">
+        <v>933</v>
+      </c>
+      <c r="C468" t="s">
         <v>1052</v>
       </c>
-      <c r="B468" t="s">
-        <v>934</v>
-      </c>
-      <c r="C468" t="s">
+      <c r="D468" t="s">
         <v>1053</v>
-      </c>
-      <c r="D468" t="s">
-        <v>1054</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B469" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C469" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D469" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B470" t="s">
         <v>352</v>
       </c>
       <c r="C470" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D470" t="s">
         <v>1057</v>
-      </c>
-      <c r="D470" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B471" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C471" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D471" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B472" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C472" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D472" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B473" t="s">
         <v>352</v>
       </c>
       <c r="C473" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D473" t="s">
         <v>1062</v>
-      </c>
-      <c r="D473" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B474" t="s">
+        <v>933</v>
+      </c>
+      <c r="C474" t="s">
         <v>1064</v>
       </c>
-      <c r="B474" t="s">
-        <v>934</v>
-      </c>
-      <c r="C474" t="s">
+      <c r="D474" t="s">
         <v>1065</v>
-      </c>
-      <c r="D474" t="s">
-        <v>1066</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B475" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C475" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D475" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C476" t="s">
         <v>1068</v>
       </c>
-      <c r="C476" t="s">
+      <c r="D476" t="s">
         <v>1069</v>
-      </c>
-      <c r="D476" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B477" t="s">
+        <v>537</v>
+      </c>
+      <c r="C477" t="s">
         <v>1071</v>
       </c>
-      <c r="B477" t="s">
-        <v>538</v>
-      </c>
-      <c r="C477" t="s">
+      <c r="D477" t="s">
         <v>1072</v>
-      </c>
-      <c r="D477" t="s">
-        <v>1073</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B478" t="s">
         <v>117</v>
       </c>
       <c r="C478" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B479" t="s">
         <v>109</v>
       </c>
       <c r="C479" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D479" t="s">
         <v>1077</v>
-      </c>
-      <c r="D479" t="s">
-        <v>1078</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B480" t="s">
         <v>247</v>
       </c>
       <c r="C480" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D480" t="s">
         <v>1080</v>
-      </c>
-      <c r="D480" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B481" t="s">
+        <v>849</v>
+      </c>
+      <c r="C481" t="s">
         <v>1082</v>
-      </c>
-      <c r="B481" t="s">
-        <v>850</v>
-      </c>
-      <c r="C481" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B482" t="s">
         <v>172</v>
       </c>
       <c r="C482" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D482" t="s">
         <v>1085</v>
-      </c>
-      <c r="D482" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B483" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C483" t="s">
         <v>1087</v>
       </c>
-      <c r="C483" t="s">
-        <v>1088</v>
-      </c>
       <c r="D483" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B484" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C484" t="s">
         <v>1089</v>
       </c>
-      <c r="C484" t="s">
-        <v>1090</v>
-      </c>
       <c r="D484" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B485" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C485" t="s">
         <v>1091</v>
       </c>
-      <c r="C485" t="s">
-        <v>1092</v>
-      </c>
       <c r="D485" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B486" t="s">
         <v>175</v>
       </c>
       <c r="C486" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D486" t="s">
         <v>1093</v>
       </c>
-      <c r="D486" t="s">
+      <c r="E486" s="3" t="s">
         <v>1094</v>
-      </c>
-      <c r="E486" s="3" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B487" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C487" t="s">
         <v>1096</v>
       </c>
-      <c r="C487" t="s">
-        <v>1097</v>
-      </c>
       <c r="D487" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E487" s="3" t="s">
         <v>1094</v>
-      </c>
-      <c r="E487" s="3" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B488" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C488" t="s">
         <v>1098</v>
       </c>
-      <c r="C488" t="s">
-        <v>1099</v>
-      </c>
       <c r="D488" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E488" s="3" t="s">
         <v>1094</v>
-      </c>
-      <c r="E488" s="3" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B489" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C489" t="s">
         <v>1100</v>
       </c>
-      <c r="C489" t="s">
-        <v>1101</v>
-      </c>
       <c r="D489" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E489" s="3" t="s">
         <v>1094</v>
-      </c>
-      <c r="E489" s="3" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B490" t="s">
         <v>129</v>
       </c>
       <c r="C490" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D490" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B491" t="s">
         <v>131</v>
       </c>
       <c r="C491" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D491" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E491" s="3" t="s">
         <v>1094</v>
-      </c>
-      <c r="E491" s="3" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B492" t="s">
         <v>17</v>
       </c>
       <c r="C492" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B493" t="s">
         <v>330</v>
       </c>
       <c r="C493" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B494" t="s">
         <v>17</v>
       </c>
       <c r="C494" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B495" t="s">
         <v>117</v>
       </c>
       <c r="C495" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B496" t="s">
         <v>131</v>
       </c>
       <c r="C496" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D496" t="s">
         <v>1112</v>
-      </c>
-      <c r="D496" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B497" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C497" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D497" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B498" t="s">
         <v>43</v>
       </c>
       <c r="C498" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D498" t="s">
         <v>1116</v>
-      </c>
-      <c r="D498" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B499" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C499" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D499" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B500" t="s">
         <v>1119</v>
       </c>
-      <c r="B500" t="s">
+      <c r="C500" t="s">
         <v>1120</v>
       </c>
-      <c r="C500" t="s">
+      <c r="D500" t="s">
         <v>1121</v>
-      </c>
-      <c r="D500" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B501" t="s">
         <v>1123</v>
       </c>
-      <c r="B501" t="s">
+      <c r="C501" t="s">
         <v>1124</v>
       </c>
-      <c r="C501" t="s">
+      <c r="D501" t="s">
         <v>1125</v>
-      </c>
-      <c r="D501" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B502" t="s">
+        <v>456</v>
+      </c>
+      <c r="C502" t="s">
         <v>1127</v>
       </c>
-      <c r="B502" t="s">
-        <v>457</v>
-      </c>
-      <c r="C502" t="s">
+      <c r="D502" t="s">
         <v>1128</v>
-      </c>
-      <c r="D502" t="s">
-        <v>1129</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B503" t="s">
         <v>221</v>
       </c>
       <c r="C503" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B504" t="s">
         <v>6</v>
       </c>
       <c r="C504" t="s">
+        <v>1132</v>
+      </c>
+      <c r="D504" t="s">
         <v>1133</v>
-      </c>
-      <c r="D504" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B505" t="s">
         <v>11</v>
       </c>
       <c r="C505" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D505" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B506" t="s">
         <v>302</v>
       </c>
       <c r="C506" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D506" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B507" t="s">
         <v>92</v>
       </c>
       <c r="C507" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D507" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B508" t="s">
         <v>17</v>
       </c>
       <c r="C508" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D508" t="s">
         <v>1139</v>
-      </c>
-      <c r="D508" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B509" t="s">
         <v>17</v>
       </c>
       <c r="C509" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D509" t="s">
         <v>1142</v>
-      </c>
-      <c r="D509" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B510" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C510" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D510" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B511" t="s">
         <v>1145</v>
       </c>
-      <c r="B511" t="s">
+      <c r="C511" t="s">
         <v>1146</v>
       </c>
-      <c r="C511" t="s">
+      <c r="D511" t="s">
         <v>1147</v>
       </c>
-      <c r="D511" t="s">
+      <c r="E511" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E511" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B512" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C512" t="s">
         <v>1150</v>
       </c>
-      <c r="C512" t="s">
-        <v>1151</v>
-      </c>
       <c r="D512" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E512" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E512" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B513" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C513" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D513" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E513" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E513" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B514" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C514" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D514" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E514" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E514" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B515" t="s">
         <v>332</v>
       </c>
       <c r="C515" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D515" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E515" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E515" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B516" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C516" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D516" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E516" s="4" t="s">
         <v>1148</v>
-      </c>
-      <c r="E516" s="4" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B517" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C517" t="s">
         <v>1156</v>
       </c>
-      <c r="C517" t="s">
-        <v>1157</v>
-      </c>
       <c r="D517" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E517" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E517" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B518" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C518" t="s">
         <v>1158</v>
       </c>
-      <c r="C518" t="s">
-        <v>1159</v>
-      </c>
       <c r="D518" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E518" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E518" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B519" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C519" t="s">
         <v>1160</v>
       </c>
-      <c r="C519" t="s">
-        <v>1161</v>
-      </c>
       <c r="D519" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E519" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E519" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B520" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C520" t="s">
         <v>1162</v>
       </c>
-      <c r="C520" t="s">
-        <v>1163</v>
-      </c>
       <c r="D520" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E520" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E520" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B521" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C521" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="D521" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E521" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E521" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B522" t="s">
         <v>113</v>
       </c>
       <c r="C522" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="D522" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E522" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E522" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B523" t="s">
         <v>113</v>
       </c>
       <c r="C523" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D523" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B524" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C524" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="D524" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E524" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E524" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B525" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C525" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D525" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E525" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E525" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B526" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C526" t="s">
         <v>1169</v>
       </c>
-      <c r="C526" t="s">
-        <v>1170</v>
-      </c>
       <c r="D526" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E526" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E526" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B527" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C527" t="s">
         <v>1171</v>
       </c>
-      <c r="C527" t="s">
-        <v>1172</v>
-      </c>
       <c r="D527" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E527" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E527" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B528" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C528" t="s">
         <v>1173</v>
       </c>
-      <c r="C528" t="s">
-        <v>1174</v>
-      </c>
       <c r="D528" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E528" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E528" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B529" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C529" t="s">
         <v>1175</v>
       </c>
-      <c r="C529" t="s">
-        <v>1176</v>
-      </c>
       <c r="D529" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E529" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E529" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B530" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C530" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D530" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E530" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E530" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B531" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C531" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D531" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E531" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E531" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B532" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C532" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D532" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E532" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E532" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B533" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C533" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D533" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E533" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E533" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B534" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C534" t="s">
         <v>1181</v>
       </c>
-      <c r="C534" t="s">
-        <v>1182</v>
-      </c>
       <c r="D534" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E534" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E534" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B535" t="s">
         <v>216</v>
       </c>
       <c r="C535" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D535" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E535" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E535" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B536" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C536" t="s">
         <v>1184</v>
       </c>
-      <c r="C536" t="s">
-        <v>1185</v>
-      </c>
       <c r="D536" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E536" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E536" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B537" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C537" t="s">
         <v>1186</v>
       </c>
-      <c r="C537" t="s">
-        <v>1187</v>
-      </c>
       <c r="D537" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E537" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E537" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B538" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C538" t="s">
         <v>1188</v>
       </c>
-      <c r="C538" t="s">
-        <v>1189</v>
-      </c>
       <c r="D538" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E538" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E538" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B539" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C539" t="s">
         <v>1190</v>
       </c>
-      <c r="C539" t="s">
-        <v>1191</v>
-      </c>
       <c r="D539" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E539" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E539" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B540" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C540" t="s">
         <v>1192</v>
       </c>
-      <c r="C540" t="s">
-        <v>1193</v>
-      </c>
       <c r="D540" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E540" s="3" t="s">
         <v>1148</v>
-      </c>
-      <c r="E540" s="3" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B541" t="s">
         <v>1194</v>
       </c>
-      <c r="B541" t="s">
+      <c r="C541" t="s">
         <v>1195</v>
-      </c>
-      <c r="C541" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B542" t="s">
         <v>76</v>
       </c>
       <c r="C542" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B543" t="s">
         <v>1198</v>
       </c>
-      <c r="B543" t="s">
+      <c r="C543" t="s">
         <v>1199</v>
       </c>
-      <c r="C543" t="s">
+      <c r="D543" t="s">
         <v>1200</v>
-      </c>
-      <c r="D543" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B544" t="s">
+        <v>462</v>
+      </c>
+      <c r="C544" t="s">
         <v>1202</v>
       </c>
-      <c r="B544" t="s">
-        <v>463</v>
-      </c>
-      <c r="C544" t="s">
+      <c r="D544" t="s">
         <v>1203</v>
-      </c>
-      <c r="D544" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B545" t="s">
         <v>17</v>
       </c>
       <c r="C545" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D545" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B546" t="s">
         <v>1206</v>
       </c>
-      <c r="B546" t="s">
+      <c r="C546" t="s">
         <v>1207</v>
       </c>
-      <c r="C546" t="s">
+      <c r="D546" t="s">
         <v>1208</v>
-      </c>
-      <c r="D546" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B547" t="s">
         <v>352</v>
       </c>
       <c r="C547" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D547" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B548" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C548" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D548" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B549" t="s">
         <v>96</v>
       </c>
       <c r="C549" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D549" t="s">
         <v>1213</v>
-      </c>
-      <c r="D549" t="s">
-        <v>1214</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="B550" t="s">
         <v>131</v>
       </c>
       <c r="C550" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B551" t="s">
         <v>200</v>
       </c>
       <c r="C551" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B552" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C552" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="B553" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C553" t="s">
         <v>1220</v>
-      </c>
-      <c r="C553" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C554" t="s">
         <v>1222</v>
       </c>
-      <c r="C554" t="s">
+      <c r="D554" t="s">
         <v>1223</v>
-      </c>
-      <c r="D554" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B555" t="s">
         <v>302</v>
       </c>
       <c r="C555" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B556" t="s">
         <v>129</v>
       </c>
       <c r="C556" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D556" t="s">
         <v>1228</v>
-      </c>
-      <c r="D556" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B557" t="s">
         <v>1230</v>
       </c>
-      <c r="B557" t="s">
+      <c r="C557" t="s">
         <v>1231</v>
       </c>
-      <c r="C557" t="s">
-        <v>1232</v>
-      </c>
       <c r="D557" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B558" t="s">
         <v>131</v>
       </c>
       <c r="C558" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.25">
@@ -12333,499 +12327,499 @@
         <v>199</v>
       </c>
       <c r="B559" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C559" t="s">
         <v>1235</v>
-      </c>
-      <c r="C559" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B560" t="s">
         <v>109</v>
       </c>
       <c r="C560" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D560" t="s">
         <v>1238</v>
-      </c>
-      <c r="D560" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B561" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C561" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D561" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B562" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C562" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D562" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B563" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C563" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D563" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B564" t="s">
+        <v>577</v>
+      </c>
+      <c r="C564" t="s">
         <v>1243</v>
-      </c>
-      <c r="B564" t="s">
-        <v>578</v>
-      </c>
-      <c r="C564" t="s">
-        <v>1244</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B565" t="s">
         <v>145</v>
       </c>
       <c r="C565" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D565" t="s">
         <v>1246</v>
-      </c>
-      <c r="D565" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="B566" t="s">
         <v>109</v>
       </c>
       <c r="C566" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D566" t="s">
         <v>1249</v>
-      </c>
-      <c r="D566" t="s">
-        <v>1250</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B567" t="s">
         <v>302</v>
       </c>
       <c r="C567" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B568" t="s">
         <v>221</v>
       </c>
       <c r="C568" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B569" t="s">
         <v>1254</v>
       </c>
-      <c r="B569" t="s">
+      <c r="C569" t="s">
         <v>1255</v>
       </c>
-      <c r="C569" t="s">
+      <c r="D569" t="s">
         <v>1256</v>
-      </c>
-      <c r="D569" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B570" t="s">
         <v>1258</v>
       </c>
-      <c r="B570" t="s">
+      <c r="C570" t="s">
         <v>1259</v>
       </c>
-      <c r="C570" t="s">
+      <c r="D570" t="s">
         <v>1260</v>
-      </c>
-      <c r="D570" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B571" t="s">
         <v>109</v>
       </c>
       <c r="C571" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="D571" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="B572" t="s">
         <v>9</v>
       </c>
       <c r="C572" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D572" t="s">
         <v>1264</v>
-      </c>
-      <c r="D572" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B573" t="s">
         <v>9</v>
       </c>
       <c r="C573" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D573" t="s">
         <v>1267</v>
-      </c>
-      <c r="D573" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="B574" t="s">
         <v>11</v>
       </c>
       <c r="C574" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="D574" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B575" t="s">
+        <v>468</v>
+      </c>
+      <c r="C575" t="s">
         <v>1270</v>
       </c>
-      <c r="B575" t="s">
-        <v>469</v>
-      </c>
-      <c r="C575" t="s">
+      <c r="D575" t="s">
         <v>1271</v>
-      </c>
-      <c r="D575" t="s">
-        <v>1272</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="B576" t="s">
         <v>17</v>
       </c>
       <c r="C576" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D576" t="s">
         <v>1274</v>
-      </c>
-      <c r="D576" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B577" t="s">
         <v>344</v>
       </c>
       <c r="C577" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D577" t="s">
         <v>1277</v>
-      </c>
-      <c r="D577" t="s">
-        <v>1278</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B578" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C578" t="s">
         <v>1279</v>
       </c>
-      <c r="C578" t="s">
-        <v>1280</v>
-      </c>
       <c r="D578" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B579" t="s">
         <v>1281</v>
       </c>
-      <c r="B579" t="s">
+      <c r="C579" t="s">
         <v>1282</v>
       </c>
-      <c r="C579" t="s">
+      <c r="D579" t="s">
         <v>1283</v>
-      </c>
-      <c r="D579" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C580" t="s">
         <v>1285</v>
       </c>
-      <c r="B580" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C580" t="s">
+      <c r="D580" t="s">
         <v>1286</v>
-      </c>
-      <c r="D580" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="B581" t="s">
         <v>346</v>
       </c>
       <c r="C581" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D581" t="s">
         <v>1289</v>
-      </c>
-      <c r="D581" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B582" t="s">
         <v>109</v>
       </c>
       <c r="C582" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D582" t="s">
         <v>1292</v>
-      </c>
-      <c r="D582" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B583" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C583" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="D583" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C584" t="s">
         <v>1295</v>
       </c>
-      <c r="B584" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C584" t="s">
+      <c r="D584" t="s">
         <v>1296</v>
-      </c>
-      <c r="D584" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="B585" t="s">
         <v>129</v>
       </c>
       <c r="C585" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D585" t="s">
         <v>1299</v>
-      </c>
-      <c r="D585" t="s">
-        <v>1300</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B586" t="s">
         <v>1301</v>
       </c>
-      <c r="B586" t="s">
+      <c r="C586" t="s">
         <v>1302</v>
       </c>
-      <c r="C586" t="s">
-        <v>1303</v>
-      </c>
       <c r="D586" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="B587" t="s">
         <v>131</v>
       </c>
       <c r="C587" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D587" t="s">
         <v>1305</v>
-      </c>
-      <c r="D587" t="s">
-        <v>1306</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B588" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C588" t="s">
         <v>1307</v>
       </c>
-      <c r="C588" t="s">
-        <v>1308</v>
-      </c>
       <c r="D588" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B589" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C589" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D589" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="B590" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C590" t="s">
         <v>1310</v>
       </c>
-      <c r="C590" t="s">
-        <v>1311</v>
-      </c>
       <c r="D590" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B591" t="s">
         <v>131</v>
       </c>
       <c r="C591" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D591" t="s">
         <v>1313</v>
-      </c>
-      <c r="D591" t="s">
-        <v>1314</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B592" t="s">
         <v>1315</v>
       </c>
-      <c r="B592" t="s">
+      <c r="C592" t="s">
         <v>1316</v>
       </c>
-      <c r="C592" t="s">
-        <v>1317</v>
-      </c>
       <c r="D592" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C593" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D593" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B594" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C594" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D594" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="B595" t="s">
         <v>113</v>
       </c>
       <c r="C595" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D595" t="s">
         <v>194</v>
@@ -12833,202 +12827,202 @@
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B596" t="s">
         <v>17</v>
       </c>
       <c r="C596" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D596" t="s">
         <v>1323</v>
-      </c>
-      <c r="D596" t="s">
-        <v>1324</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B597" t="s">
         <v>1325</v>
       </c>
-      <c r="B597" t="s">
+      <c r="C597" t="s">
         <v>1326</v>
       </c>
-      <c r="C597" t="s">
+      <c r="D597" t="s">
         <v>1327</v>
-      </c>
-      <c r="D597" t="s">
-        <v>1328</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B598" t="s">
         <v>44</v>
       </c>
       <c r="C598" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="B599" t="s">
         <v>117</v>
       </c>
       <c r="C599" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B600" t="s">
         <v>33</v>
       </c>
       <c r="C600" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B601" t="s">
         <v>247</v>
       </c>
       <c r="C601" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D601" t="s">
         <v>1336</v>
-      </c>
-      <c r="D601" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B602" t="s">
         <v>11</v>
       </c>
       <c r="C602" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B603" t="s">
+        <v>587</v>
+      </c>
+      <c r="C603" t="s">
         <v>1340</v>
       </c>
-      <c r="B603" t="s">
-        <v>588</v>
-      </c>
-      <c r="C603" t="s">
+      <c r="D603" t="s">
         <v>1341</v>
-      </c>
-      <c r="D603" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="B604" t="s">
         <v>17</v>
       </c>
       <c r="C604" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D604" t="s">
         <v>1344</v>
-      </c>
-      <c r="D604" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B605" t="s">
         <v>20</v>
       </c>
       <c r="C605" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B606" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C606" t="s">
         <v>1348</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C606" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B607" t="s">
+        <v>529</v>
+      </c>
+      <c r="C607" t="s">
         <v>1350</v>
       </c>
-      <c r="B607" t="s">
-        <v>530</v>
-      </c>
-      <c r="C607" t="s">
+      <c r="D607" t="s">
         <v>1351</v>
-      </c>
-      <c r="D607" t="s">
-        <v>1352</v>
       </c>
     </row>
     <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B608" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C608" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D608" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B609" t="s">
+        <v>577</v>
+      </c>
+      <c r="C609" t="s">
         <v>1354</v>
-      </c>
-      <c r="B609" t="s">
-        <v>578</v>
-      </c>
-      <c r="C609" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B610" t="s">
         <v>17</v>
       </c>
       <c r="C610" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D610" t="s">
         <v>1357</v>
-      </c>
-      <c r="D610" t="s">
-        <v>1358</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B611" t="s">
+        <v>422</v>
+      </c>
+      <c r="C611" t="s">
         <v>1359</v>
-      </c>
-      <c r="B611" t="s">
-        <v>423</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1360</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
@@ -13039,7 +13033,7 @@
         <v>145</v>
       </c>
       <c r="C612" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
@@ -13047,10 +13041,10 @@
         <v>304</v>
       </c>
       <c r="B613" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C613" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="D613" t="s">
         <v>306</v>
@@ -13061,57 +13055,57 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B614" t="s">
         <v>307</v>
       </c>
       <c r="C614" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B615" t="s">
+        <v>422</v>
+      </c>
+      <c r="C615" t="s">
         <v>1364</v>
-      </c>
-      <c r="B615" t="s">
-        <v>423</v>
-      </c>
-      <c r="C615" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B616" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C616" t="s">
         <v>1366</v>
-      </c>
-      <c r="C616" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B617" t="s">
+        <v>422</v>
+      </c>
+      <c r="C617" t="s">
         <v>1368</v>
-      </c>
-      <c r="B617" t="s">
-        <v>423</v>
-      </c>
-      <c r="C617" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B618" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C618" t="s">
         <v>1370</v>
-      </c>
-      <c r="C618" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
@@ -13122,62 +13116,62 @@
         <v>44</v>
       </c>
       <c r="C619" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="B620" t="s">
         <v>109</v>
       </c>
       <c r="C620" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B621" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C621" t="s">
         <v>1375</v>
-      </c>
-      <c r="C621" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B622" t="s">
         <v>307</v>
       </c>
       <c r="C622" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="B623" t="s">
         <v>44</v>
       </c>
       <c r="C623" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B624" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C624" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
@@ -13185,52 +13179,52 @@
         <v>26</v>
       </c>
       <c r="B625" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C625" t="s">
         <v>1382</v>
-      </c>
-      <c r="C625" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B626" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C626" t="s">
         <v>1384</v>
       </c>
-      <c r="C626" t="s">
-        <v>1385</v>
-      </c>
       <c r="D626" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B627" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C627" t="s">
         <v>1386</v>
       </c>
-      <c r="C627" t="s">
+      <c r="D627" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E627" s="3" t="s">
         <v>1387</v>
-      </c>
-      <c r="D627" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E627" s="3" t="s">
-        <v>1388</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B628" t="s">
         <v>243</v>
       </c>
       <c r="C628" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
@@ -13238,21 +13232,21 @@
         <v>199</v>
       </c>
       <c r="B629" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C629" t="s">
         <v>1390</v>
-      </c>
-      <c r="C629" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B630" t="s">
         <v>44</v>
       </c>
       <c r="C630" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
@@ -13260,10 +13254,10 @@
         <v>223</v>
       </c>
       <c r="B631" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C631" t="s">
         <v>1394</v>
-      </c>
-      <c r="C631" t="s">
-        <v>1395</v>
       </c>
       <c r="D631" t="s">
         <v>208</v>
@@ -13277,10 +13271,10 @@
         <v>223</v>
       </c>
       <c r="B632" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C632" t="s">
         <v>1396</v>
-      </c>
-      <c r="C632" t="s">
-        <v>1397</v>
       </c>
       <c r="D632" t="s">
         <v>231</v>
